--- a/config_trend.xlsx
+++ b/config_trend.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="495">
   <si>
     <t xml:space="preserve">search</t>
   </si>
@@ -1673,6 +1673,15 @@
     <t xml:space="preserve">$1’$2</t>
   </si>
   <si>
+    <t xml:space="preserve">### tr-TR R220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li id="li2"&gt;Amundsen, the Norwegian&lt;/li&gt;&lt;/ul&gt;&lt;/text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li id="li2"&gt;Amundsen, the Norwegian&lt;/li&gt;&lt;/ul&gt; &lt;dummy/&gt; &lt;/text&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">'fragments'</t>
   </si>
   <si>
@@ -2069,7 +2078,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2141,12 +2150,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2298,7 +2301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2399,27 +2402,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2431,7 +2430,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2479,11 +2478,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2567,9 +2566,9 @@
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A87" activeCellId="0" sqref="A87"/>
+      <selection pane="bottomLeft" activeCell="A284" activeCellId="0" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4029,10 +4028,10 @@
       </c>
     </row>
     <row r="87" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4211,7 +4210,7 @@
       <c r="B97" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="25" t="s">
         <v>163</v>
       </c>
       <c r="D97" s="11"/>
@@ -4528,7 +4527,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
         <v>200</v>
       </c>
@@ -4542,7 +4541,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
         <v>202</v>
       </c>
@@ -4560,134 +4559,134 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="27" t="s">
+    <row r="118" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C118" s="28"/>
-    </row>
-    <row r="119" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="27" t="s">
+      <c r="C118" s="27"/>
+    </row>
+    <row r="119" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="120" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="27" t="s">
+    <row r="120" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="28"/>
-    </row>
-    <row r="121" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="27" t="s">
+      <c r="C120" s="27"/>
+    </row>
+    <row r="121" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="28"/>
-    </row>
-    <row r="122" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="27" t="s">
+      <c r="C121" s="27"/>
+    </row>
+    <row r="122" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="28"/>
-    </row>
-    <row r="123" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="27" t="s">
+      <c r="C122" s="27"/>
+    </row>
+    <row r="123" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C123" s="28"/>
-    </row>
-    <row r="124" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="27" t="s">
+      <c r="C123" s="27"/>
+    </row>
+    <row r="124" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C124" s="28"/>
-    </row>
-    <row r="125" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="27" t="s">
+      <c r="C124" s="27"/>
+    </row>
+    <row r="125" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C125" s="28"/>
-    </row>
-    <row r="126" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="29" t="s">
+      <c r="C125" s="27"/>
+    </row>
+    <row r="126" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C126" s="30"/>
+      <c r="C126" s="29"/>
     </row>
     <row r="127" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="30"/>
+      <c r="C127" s="29"/>
     </row>
     <row r="128" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C128" s="26"/>
+      <c r="C128" s="25"/>
     </row>
     <row r="129" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="27" t="s">
+      <c r="A129" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C129" s="28"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
       <c r="I129" s="11"/>
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="27" t="s">
+      <c r="A130" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C130" s="28"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
@@ -4696,10 +4695,10 @@
       <c r="A131" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C131" s="26"/>
+      <c r="C131" s="25"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
@@ -4793,7 +4792,7 @@
       <c r="A137" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C137" s="26"/>
+      <c r="C137" s="25"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
@@ -4865,7 +4864,7 @@
       <c r="B141" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="25" t="s">
         <v>242</v>
       </c>
       <c r="D141" s="11"/>
@@ -5028,10 +5027,10 @@
       <c r="K150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="31" t="s">
+      <c r="A151" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="30" t="s">
         <v>269</v>
       </c>
       <c r="D151" s="8"/>
@@ -5044,10 +5043,10 @@
       <c r="K151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="32" t="s">
+      <c r="A152" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B152" s="31" t="s">
+      <c r="B152" s="30" t="s">
         <v>146</v>
       </c>
       <c r="D152" s="8"/>
@@ -5060,10 +5059,10 @@
       <c r="K152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B153" s="31" t="s">
+      <c r="B153" s="30" t="s">
         <v>272</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -5466,8 +5465,8 @@
       <c r="A178" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
@@ -5510,7 +5509,7 @@
       <c r="K180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="26" t="s">
+      <c r="A181" s="25" t="s">
         <v>324</v>
       </c>
       <c r="D181" s="8"/>
@@ -5539,7 +5538,7 @@
       <c r="K182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="26" t="s">
+      <c r="A183" s="25" t="s">
         <v>327</v>
       </c>
       <c r="D183" s="8"/>
@@ -5552,10 +5551,10 @@
       <c r="K183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="33" t="s">
+      <c r="A184" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="B184" s="33" t="s">
+      <c r="B184" s="32" t="s">
         <v>329</v>
       </c>
       <c r="D184" s="8"/>
@@ -5568,10 +5567,10 @@
       <c r="K184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="33" t="s">
+      <c r="A185" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="32" t="s">
         <v>331</v>
       </c>
       <c r="D185" s="8"/>
@@ -5591,29 +5590,29 @@
         <v>333</v>
       </c>
       <c r="C186" s="23"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="34"/>
-      <c r="I186" s="34"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="34"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
+      <c r="J186" s="33"/>
+      <c r="K186" s="33"/>
     </row>
     <row r="187" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="35" t="s">
+      <c r="A187" s="34" t="s">
         <v>334</v>
       </c>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
-      <c r="D187" s="34"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="34"/>
-      <c r="I187" s="34"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="34"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
+      <c r="J187" s="33"/>
+      <c r="K187" s="33"/>
     </row>
     <row r="188" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="23" t="s">
@@ -5623,14 +5622,14 @@
         <v>336</v>
       </c>
       <c r="C188" s="23"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="34"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="34"/>
-      <c r="I188" s="34"/>
-      <c r="J188" s="34"/>
-      <c r="K188" s="34"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
+      <c r="I188" s="33"/>
+      <c r="J188" s="33"/>
+      <c r="K188" s="33"/>
     </row>
     <row r="189" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="23" t="s">
@@ -5640,14 +5639,14 @@
         <v>336</v>
       </c>
       <c r="C189" s="23"/>
-      <c r="D189" s="34"/>
-      <c r="E189" s="34"/>
-      <c r="F189" s="34"/>
-      <c r="G189" s="34"/>
-      <c r="H189" s="34"/>
-      <c r="I189" s="34"/>
-      <c r="J189" s="34"/>
-      <c r="K189" s="34"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="33"/>
+      <c r="J189" s="33"/>
+      <c r="K189" s="33"/>
     </row>
     <row r="190" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="23" t="s">
@@ -5657,14 +5656,14 @@
         <v>336</v>
       </c>
       <c r="C190" s="23"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="34"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="34"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="33"/>
+      <c r="J190" s="33"/>
+      <c r="K190" s="33"/>
     </row>
     <row r="191" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="23" t="s">
@@ -5674,14 +5673,14 @@
         <v>336</v>
       </c>
       <c r="C191" s="23"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="34"/>
-      <c r="G191" s="34"/>
-      <c r="H191" s="34"/>
-      <c r="I191" s="34"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="34"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="33"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="33"/>
+      <c r="J191" s="33"/>
+      <c r="K191" s="33"/>
     </row>
     <row r="192" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="23" t="s">
@@ -5691,14 +5690,14 @@
         <v>336</v>
       </c>
       <c r="C192" s="23"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="34"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="34"/>
-      <c r="I192" s="34"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="34"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="33"/>
+      <c r="I192" s="33"/>
+      <c r="J192" s="33"/>
+      <c r="K192" s="33"/>
     </row>
     <row r="193" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="23" t="s">
@@ -5708,14 +5707,14 @@
         <v>336</v>
       </c>
       <c r="C193" s="23"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="34"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="34"/>
-      <c r="I193" s="34"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="34"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="33"/>
+      <c r="I193" s="33"/>
+      <c r="J193" s="33"/>
+      <c r="K193" s="33"/>
     </row>
     <row r="194" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="23" t="s">
@@ -5725,14 +5724,14 @@
         <v>336</v>
       </c>
       <c r="C194" s="23"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="34"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="34"/>
-      <c r="I194" s="34"/>
-      <c r="J194" s="34"/>
-      <c r="K194" s="34"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33"/>
+      <c r="I194" s="33"/>
+      <c r="J194" s="33"/>
+      <c r="K194" s="33"/>
     </row>
     <row r="195" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="23" t="s">
@@ -5742,14 +5741,14 @@
         <v>336</v>
       </c>
       <c r="C195" s="23"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="34"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="34"/>
-      <c r="I195" s="34"/>
-      <c r="J195" s="34"/>
-      <c r="K195" s="34"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
+      <c r="I195" s="33"/>
+      <c r="J195" s="33"/>
+      <c r="K195" s="33"/>
     </row>
     <row r="196" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="23" t="s">
@@ -5759,14 +5758,14 @@
         <v>336</v>
       </c>
       <c r="C196" s="23"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="34"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="34"/>
-      <c r="I196" s="34"/>
-      <c r="J196" s="34"/>
-      <c r="K196" s="34"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="33"/>
+      <c r="J196" s="33"/>
+      <c r="K196" s="33"/>
     </row>
     <row r="197" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="23" t="s">
@@ -5776,14 +5775,14 @@
         <v>336</v>
       </c>
       <c r="C197" s="23"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="34"/>
-      <c r="F197" s="34"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="34"/>
-      <c r="I197" s="34"/>
-      <c r="J197" s="34"/>
-      <c r="K197" s="34"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+      <c r="I197" s="33"/>
+      <c r="J197" s="33"/>
+      <c r="K197" s="33"/>
     </row>
     <row r="198" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="23" t="s">
@@ -5793,14 +5792,14 @@
         <v>336</v>
       </c>
       <c r="C198" s="23"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="34"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="34"/>
-      <c r="I198" s="34"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="34"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
+      <c r="J198" s="33"/>
+      <c r="K198" s="33"/>
     </row>
     <row r="199" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="23" t="s">
@@ -5810,14 +5809,14 @@
         <v>348</v>
       </c>
       <c r="C199" s="23"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="34"/>
-      <c r="I199" s="34"/>
-      <c r="J199" s="34"/>
-      <c r="K199" s="34"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="33"/>
+      <c r="J199" s="33"/>
+      <c r="K199" s="33"/>
     </row>
     <row r="200" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="23" t="s">
@@ -5827,14 +5826,14 @@
         <v>336</v>
       </c>
       <c r="C200" s="23"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="34"/>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="34"/>
-      <c r="J200" s="34"/>
-      <c r="K200" s="34"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="33"/>
+      <c r="J200" s="33"/>
+      <c r="K200" s="33"/>
     </row>
     <row r="201" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="23" t="s">
@@ -5844,14 +5843,14 @@
         <v>336</v>
       </c>
       <c r="C201" s="23"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="34"/>
-      <c r="F201" s="34"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="34"/>
-      <c r="I201" s="34"/>
-      <c r="J201" s="34"/>
-      <c r="K201" s="34"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
+      <c r="I201" s="33"/>
+      <c r="J201" s="33"/>
+      <c r="K201" s="33"/>
     </row>
     <row r="202" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="23" t="s">
@@ -5861,14 +5860,14 @@
         <v>336</v>
       </c>
       <c r="C202" s="23"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="34"/>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="34"/>
-      <c r="I202" s="34"/>
-      <c r="J202" s="34"/>
-      <c r="K202" s="34"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="33"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="33"/>
+      <c r="J202" s="33"/>
+      <c r="K202" s="33"/>
     </row>
     <row r="203" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="23" t="s">
@@ -5878,14 +5877,14 @@
         <v>336</v>
       </c>
       <c r="C203" s="23"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
-      <c r="I203" s="34"/>
-      <c r="J203" s="34"/>
-      <c r="K203" s="34"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="33"/>
+      <c r="J203" s="33"/>
+      <c r="K203" s="33"/>
     </row>
     <row r="204" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="23" t="s">
@@ -5895,14 +5894,14 @@
         <v>336</v>
       </c>
       <c r="C204" s="23"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="34"/>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
-      <c r="I204" s="34"/>
-      <c r="J204" s="34"/>
-      <c r="K204" s="34"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="33"/>
+      <c r="J204" s="33"/>
+      <c r="K204" s="33"/>
     </row>
     <row r="205" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="23" t="s">
@@ -5912,14 +5911,14 @@
         <v>336</v>
       </c>
       <c r="C205" s="23"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="34"/>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
-      <c r="I205" s="34"/>
-      <c r="J205" s="34"/>
-      <c r="K205" s="34"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="33"/>
+      <c r="J205" s="33"/>
+      <c r="K205" s="33"/>
     </row>
     <row r="206" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="23" t="s">
@@ -5929,14 +5928,14 @@
         <v>336</v>
       </c>
       <c r="C206" s="23"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="34"/>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="34"/>
-      <c r="I206" s="34"/>
-      <c r="J206" s="34"/>
-      <c r="K206" s="34"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="33"/>
+      <c r="J206" s="33"/>
+      <c r="K206" s="33"/>
     </row>
     <row r="207" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="23" t="s">
@@ -5946,14 +5945,14 @@
         <v>336</v>
       </c>
       <c r="C207" s="23"/>
-      <c r="D207" s="34"/>
-      <c r="E207" s="34"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
-      <c r="I207" s="34"/>
-      <c r="J207" s="34"/>
-      <c r="K207" s="34"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="33"/>
+      <c r="J207" s="33"/>
+      <c r="K207" s="33"/>
     </row>
     <row r="208" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="23" t="s">
@@ -5963,14 +5962,14 @@
         <v>336</v>
       </c>
       <c r="C208" s="23"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
-      <c r="I208" s="34"/>
-      <c r="J208" s="34"/>
-      <c r="K208" s="34"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
+      <c r="J208" s="33"/>
+      <c r="K208" s="33"/>
     </row>
     <row r="209" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="23" t="s">
@@ -5980,14 +5979,14 @@
         <v>336</v>
       </c>
       <c r="C209" s="23"/>
-      <c r="D209" s="34"/>
-      <c r="E209" s="34"/>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
-      <c r="I209" s="34"/>
-      <c r="J209" s="34"/>
-      <c r="K209" s="34"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
+      <c r="I209" s="33"/>
+      <c r="J209" s="33"/>
+      <c r="K209" s="33"/>
     </row>
     <row r="210" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="23" t="s">
@@ -5997,14 +5996,14 @@
         <v>336</v>
       </c>
       <c r="C210" s="23"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="34"/>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
-      <c r="I210" s="34"/>
-      <c r="J210" s="34"/>
-      <c r="K210" s="34"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="33"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="33"/>
+      <c r="I210" s="33"/>
+      <c r="J210" s="33"/>
+      <c r="K210" s="33"/>
     </row>
     <row r="211" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="23" t="s">
@@ -6014,14 +6013,14 @@
         <v>336</v>
       </c>
       <c r="C211" s="23"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
-      <c r="I211" s="34"/>
-      <c r="J211" s="34"/>
-      <c r="K211" s="34"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="33"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="33"/>
+      <c r="I211" s="33"/>
+      <c r="J211" s="33"/>
+      <c r="K211" s="33"/>
     </row>
     <row r="212" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="23" t="s">
@@ -6031,14 +6030,14 @@
         <v>336</v>
       </c>
       <c r="C212" s="23"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="34"/>
-      <c r="J212" s="34"/>
-      <c r="K212" s="34"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="33"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="33"/>
+      <c r="I212" s="33"/>
+      <c r="J212" s="33"/>
+      <c r="K212" s="33"/>
     </row>
     <row r="213" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="23" t="s">
@@ -6048,14 +6047,14 @@
         <v>336</v>
       </c>
       <c r="C213" s="23"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="34"/>
-      <c r="I213" s="34"/>
-      <c r="J213" s="34"/>
-      <c r="K213" s="34"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="33"/>
+      <c r="J213" s="33"/>
+      <c r="K213" s="33"/>
     </row>
     <row r="214" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="23" t="s">
@@ -6065,14 +6064,14 @@
         <v>336</v>
       </c>
       <c r="C214" s="23"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="34"/>
-      <c r="F214" s="34"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="34"/>
-      <c r="I214" s="34"/>
-      <c r="J214" s="34"/>
-      <c r="K214" s="34"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
+      <c r="J214" s="33"/>
+      <c r="K214" s="33"/>
     </row>
     <row r="215" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="23" t="s">
@@ -6082,14 +6081,14 @@
         <v>336</v>
       </c>
       <c r="C215" s="23"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
-      <c r="F215" s="34"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="34"/>
-      <c r="J215" s="34"/>
-      <c r="K215" s="34"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="33"/>
     </row>
     <row r="216" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="23" t="s">
@@ -6099,14 +6098,14 @@
         <v>336</v>
       </c>
       <c r="C216" s="23"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="34"/>
-      <c r="F216" s="34"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="34"/>
-      <c r="I216" s="34"/>
-      <c r="J216" s="34"/>
-      <c r="K216" s="34"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
+      <c r="J216" s="33"/>
+      <c r="K216" s="33"/>
     </row>
     <row r="217" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="23" t="s">
@@ -6116,14 +6115,14 @@
         <v>336</v>
       </c>
       <c r="C217" s="23"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="34"/>
-      <c r="J217" s="34"/>
-      <c r="K217" s="34"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="33"/>
+      <c r="J217" s="33"/>
+      <c r="K217" s="33"/>
     </row>
     <row r="218" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="23" t="s">
@@ -6133,14 +6132,14 @@
         <v>336</v>
       </c>
       <c r="C218" s="23"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="34"/>
-      <c r="F218" s="34"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="34"/>
-      <c r="I218" s="34"/>
-      <c r="J218" s="34"/>
-      <c r="K218" s="34"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
+      <c r="J218" s="33"/>
+      <c r="K218" s="33"/>
     </row>
     <row r="219" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="23" t="s">
@@ -6150,14 +6149,14 @@
         <v>336</v>
       </c>
       <c r="C219" s="23"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="34"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="34"/>
-      <c r="I219" s="34"/>
-      <c r="J219" s="34"/>
-      <c r="K219" s="34"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="33"/>
     </row>
     <row r="220" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="23" t="s">
@@ -6167,14 +6166,14 @@
         <v>336</v>
       </c>
       <c r="C220" s="23"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="34"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
-      <c r="I220" s="34"/>
-      <c r="J220" s="34"/>
-      <c r="K220" s="34"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="33"/>
+      <c r="J220" s="33"/>
+      <c r="K220" s="33"/>
     </row>
     <row r="221" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="23" t="s">
@@ -6184,14 +6183,14 @@
         <v>336</v>
       </c>
       <c r="C221" s="23"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="34"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="34"/>
-      <c r="I221" s="34"/>
-      <c r="J221" s="34"/>
-      <c r="K221" s="34"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
+      <c r="J221" s="33"/>
+      <c r="K221" s="33"/>
     </row>
     <row r="222" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="23" t="s">
@@ -6201,14 +6200,14 @@
         <v>336</v>
       </c>
       <c r="C222" s="23"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="34"/>
-      <c r="G222" s="34"/>
-      <c r="H222" s="34"/>
-      <c r="I222" s="34"/>
-      <c r="J222" s="34"/>
-      <c r="K222" s="34"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
+      <c r="J222" s="33"/>
+      <c r="K222" s="33"/>
     </row>
     <row r="223" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="23" t="s">
@@ -6218,14 +6217,14 @@
         <v>336</v>
       </c>
       <c r="C223" s="23"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="34"/>
-      <c r="F223" s="34"/>
-      <c r="G223" s="34"/>
-      <c r="H223" s="34"/>
-      <c r="I223" s="34"/>
-      <c r="J223" s="34"/>
-      <c r="K223" s="34"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
+      <c r="J223" s="33"/>
+      <c r="K223" s="33"/>
     </row>
     <row r="224" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="23" t="s">
@@ -6235,14 +6234,14 @@
         <v>336</v>
       </c>
       <c r="C224" s="23"/>
-      <c r="D224" s="34"/>
-      <c r="E224" s="34"/>
-      <c r="F224" s="34"/>
-      <c r="G224" s="34"/>
-      <c r="H224" s="34"/>
-      <c r="I224" s="34"/>
-      <c r="J224" s="34"/>
-      <c r="K224" s="34"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="33"/>
+      <c r="J224" s="33"/>
+      <c r="K224" s="33"/>
     </row>
     <row r="225" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="23" t="s">
@@ -6252,14 +6251,14 @@
         <v>375</v>
       </c>
       <c r="C225" s="23"/>
-      <c r="D225" s="34"/>
-      <c r="E225" s="34"/>
-      <c r="F225" s="34"/>
-      <c r="G225" s="34"/>
-      <c r="H225" s="34"/>
-      <c r="I225" s="34"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="34"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33"/>
+      <c r="I225" s="33"/>
+      <c r="J225" s="33"/>
+      <c r="K225" s="33"/>
     </row>
     <row r="226" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="23" t="s">
@@ -6269,14 +6268,14 @@
         <v>336</v>
       </c>
       <c r="C226" s="23"/>
-      <c r="D226" s="34"/>
-      <c r="E226" s="34"/>
-      <c r="F226" s="34"/>
-      <c r="G226" s="34"/>
-      <c r="H226" s="34"/>
-      <c r="I226" s="34"/>
-      <c r="J226" s="34"/>
-      <c r="K226" s="34"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
+      <c r="I226" s="33"/>
+      <c r="J226" s="33"/>
+      <c r="K226" s="33"/>
     </row>
     <row r="227" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="23" t="s">
@@ -6286,14 +6285,14 @@
         <v>336</v>
       </c>
       <c r="C227" s="23"/>
-      <c r="D227" s="34"/>
-      <c r="E227" s="34"/>
-      <c r="F227" s="34"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="34"/>
-      <c r="I227" s="34"/>
-      <c r="J227" s="34"/>
-      <c r="K227" s="34"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="33"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="33"/>
     </row>
     <row r="228" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="23" t="s">
@@ -6303,14 +6302,14 @@
         <v>336</v>
       </c>
       <c r="C228" s="23"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="34"/>
-      <c r="F228" s="34"/>
-      <c r="G228" s="34"/>
-      <c r="H228" s="34"/>
-      <c r="I228" s="34"/>
-      <c r="J228" s="34"/>
-      <c r="K228" s="34"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="33"/>
+      <c r="J228" s="33"/>
+      <c r="K228" s="33"/>
     </row>
     <row r="229" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="23" t="s">
@@ -6320,14 +6319,14 @@
         <v>336</v>
       </c>
       <c r="C229" s="23"/>
-      <c r="D229" s="34"/>
-      <c r="E229" s="34"/>
-      <c r="F229" s="34"/>
-      <c r="G229" s="34"/>
-      <c r="H229" s="34"/>
-      <c r="I229" s="34"/>
-      <c r="J229" s="34"/>
-      <c r="K229" s="34"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="33"/>
+      <c r="I229" s="33"/>
+      <c r="J229" s="33"/>
+      <c r="K229" s="33"/>
     </row>
     <row r="230" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="23" t="s">
@@ -6337,14 +6336,14 @@
         <v>336</v>
       </c>
       <c r="C230" s="23"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="34"/>
-      <c r="F230" s="34"/>
-      <c r="G230" s="34"/>
-      <c r="H230" s="34"/>
-      <c r="I230" s="34"/>
-      <c r="J230" s="34"/>
-      <c r="K230" s="34"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="33"/>
+      <c r="J230" s="33"/>
+      <c r="K230" s="33"/>
     </row>
     <row r="231" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="23" t="s">
@@ -6354,14 +6353,14 @@
         <v>336</v>
       </c>
       <c r="C231" s="23"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="34"/>
-      <c r="F231" s="34"/>
-      <c r="G231" s="34"/>
-      <c r="H231" s="34"/>
-      <c r="I231" s="34"/>
-      <c r="J231" s="34"/>
-      <c r="K231" s="34"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="33"/>
+      <c r="I231" s="33"/>
+      <c r="J231" s="33"/>
+      <c r="K231" s="33"/>
     </row>
     <row r="232" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="23" t="s">
@@ -6371,14 +6370,14 @@
         <v>336</v>
       </c>
       <c r="C232" s="23"/>
-      <c r="D232" s="34"/>
-      <c r="E232" s="34"/>
-      <c r="F232" s="34"/>
-      <c r="G232" s="34"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="34"/>
-      <c r="J232" s="34"/>
-      <c r="K232" s="34"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="33"/>
+      <c r="J232" s="33"/>
+      <c r="K232" s="33"/>
     </row>
     <row r="233" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="23" t="s">
@@ -6388,14 +6387,14 @@
         <v>336</v>
       </c>
       <c r="C233" s="23"/>
-      <c r="D233" s="34"/>
-      <c r="E233" s="34"/>
-      <c r="F233" s="34"/>
-      <c r="G233" s="34"/>
-      <c r="H233" s="34"/>
-      <c r="I233" s="34"/>
-      <c r="J233" s="34"/>
-      <c r="K233" s="34"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="33"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="33"/>
+      <c r="I233" s="33"/>
+      <c r="J233" s="33"/>
+      <c r="K233" s="33"/>
     </row>
     <row r="234" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="23" t="s">
@@ -6405,14 +6404,14 @@
         <v>336</v>
       </c>
       <c r="C234" s="23"/>
-      <c r="D234" s="34"/>
-      <c r="E234" s="34"/>
-      <c r="F234" s="34"/>
-      <c r="G234" s="34"/>
-      <c r="H234" s="34"/>
-      <c r="I234" s="34"/>
-      <c r="J234" s="34"/>
-      <c r="K234" s="34"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="33"/>
+      <c r="I234" s="33"/>
+      <c r="J234" s="33"/>
+      <c r="K234" s="33"/>
     </row>
     <row r="235" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="23" t="s">
@@ -6422,14 +6421,14 @@
         <v>336</v>
       </c>
       <c r="C235" s="23"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="34"/>
-      <c r="J235" s="34"/>
-      <c r="K235" s="34"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="33"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="33"/>
+      <c r="I235" s="33"/>
+      <c r="J235" s="33"/>
+      <c r="K235" s="33"/>
     </row>
     <row r="236" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="23" t="s">
@@ -6439,14 +6438,14 @@
         <v>336</v>
       </c>
       <c r="C236" s="23"/>
-      <c r="D236" s="34"/>
-      <c r="E236" s="34"/>
-      <c r="F236" s="34"/>
-      <c r="G236" s="34"/>
-      <c r="H236" s="34"/>
-      <c r="I236" s="34"/>
-      <c r="J236" s="34"/>
-      <c r="K236" s="34"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="33"/>
+      <c r="I236" s="33"/>
+      <c r="J236" s="33"/>
+      <c r="K236" s="33"/>
     </row>
     <row r="237" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="23" t="s">
@@ -6456,14 +6455,14 @@
         <v>388</v>
       </c>
       <c r="C237" s="23"/>
-      <c r="D237" s="34"/>
-      <c r="E237" s="34"/>
-      <c r="F237" s="34"/>
-      <c r="G237" s="34"/>
-      <c r="H237" s="34"/>
-      <c r="I237" s="34"/>
-      <c r="J237" s="34"/>
-      <c r="K237" s="34"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="33"/>
+      <c r="I237" s="33"/>
+      <c r="J237" s="33"/>
+      <c r="K237" s="33"/>
     </row>
     <row r="238" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="23" t="s">
@@ -6473,14 +6472,14 @@
         <v>336</v>
       </c>
       <c r="C238" s="23"/>
-      <c r="D238" s="34"/>
-      <c r="E238" s="34"/>
-      <c r="F238" s="34"/>
-      <c r="G238" s="34"/>
-      <c r="H238" s="34"/>
-      <c r="I238" s="34"/>
-      <c r="J238" s="34"/>
-      <c r="K238" s="34"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="33"/>
+      <c r="I238" s="33"/>
+      <c r="J238" s="33"/>
+      <c r="K238" s="33"/>
     </row>
     <row r="239" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="23" t="s">
@@ -6490,14 +6489,14 @@
         <v>336</v>
       </c>
       <c r="C239" s="23"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="34"/>
-      <c r="G239" s="34"/>
-      <c r="H239" s="34"/>
-      <c r="I239" s="34"/>
-      <c r="J239" s="34"/>
-      <c r="K239" s="34"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="33"/>
+      <c r="I239" s="33"/>
+      <c r="J239" s="33"/>
+      <c r="K239" s="33"/>
     </row>
     <row r="240" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="23" t="s">
@@ -6507,14 +6506,14 @@
         <v>336</v>
       </c>
       <c r="C240" s="23"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="34"/>
-      <c r="G240" s="34"/>
-      <c r="H240" s="34"/>
-      <c r="I240" s="34"/>
-      <c r="J240" s="34"/>
-      <c r="K240" s="34"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
+      <c r="F240" s="33"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="33"/>
+      <c r="I240" s="33"/>
+      <c r="J240" s="33"/>
+      <c r="K240" s="33"/>
     </row>
     <row r="241" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="23" t="s">
@@ -6524,14 +6523,14 @@
         <v>336</v>
       </c>
       <c r="C241" s="23"/>
-      <c r="D241" s="34"/>
-      <c r="E241" s="34"/>
-      <c r="F241" s="34"/>
-      <c r="G241" s="34"/>
-      <c r="H241" s="34"/>
-      <c r="I241" s="34"/>
-      <c r="J241" s="34"/>
-      <c r="K241" s="34"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="33"/>
+      <c r="F241" s="33"/>
+      <c r="G241" s="33"/>
+      <c r="H241" s="33"/>
+      <c r="I241" s="33"/>
+      <c r="J241" s="33"/>
+      <c r="K241" s="33"/>
     </row>
     <row r="242" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="23" t="s">
@@ -6541,14 +6540,14 @@
         <v>336</v>
       </c>
       <c r="C242" s="23"/>
-      <c r="D242" s="34"/>
-      <c r="E242" s="34"/>
-      <c r="F242" s="34"/>
-      <c r="G242" s="34"/>
-      <c r="H242" s="34"/>
-      <c r="I242" s="34"/>
-      <c r="J242" s="34"/>
-      <c r="K242" s="34"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="33"/>
+      <c r="F242" s="33"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="33"/>
+      <c r="I242" s="33"/>
+      <c r="J242" s="33"/>
+      <c r="K242" s="33"/>
     </row>
     <row r="243" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="23" t="s">
@@ -6558,14 +6557,14 @@
         <v>336</v>
       </c>
       <c r="C243" s="23"/>
-      <c r="D243" s="34"/>
-      <c r="E243" s="34"/>
-      <c r="F243" s="34"/>
-      <c r="G243" s="34"/>
-      <c r="H243" s="34"/>
-      <c r="I243" s="34"/>
-      <c r="J243" s="34"/>
-      <c r="K243" s="34"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
+      <c r="F243" s="33"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="33"/>
+      <c r="I243" s="33"/>
+      <c r="J243" s="33"/>
+      <c r="K243" s="33"/>
     </row>
     <row r="244" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="23" t="s">
@@ -6575,14 +6574,14 @@
         <v>336</v>
       </c>
       <c r="C244" s="23"/>
-      <c r="D244" s="34"/>
-      <c r="E244" s="34"/>
-      <c r="F244" s="34"/>
-      <c r="G244" s="34"/>
-      <c r="H244" s="34"/>
-      <c r="I244" s="34"/>
-      <c r="J244" s="34"/>
-      <c r="K244" s="34"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
+      <c r="F244" s="33"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="33"/>
+      <c r="I244" s="33"/>
+      <c r="J244" s="33"/>
+      <c r="K244" s="33"/>
     </row>
     <row r="245" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="23" t="s">
@@ -6592,14 +6591,14 @@
         <v>336</v>
       </c>
       <c r="C245" s="23"/>
-      <c r="D245" s="34"/>
-      <c r="E245" s="34"/>
-      <c r="F245" s="34"/>
-      <c r="G245" s="34"/>
-      <c r="H245" s="34"/>
-      <c r="I245" s="34"/>
-      <c r="J245" s="34"/>
-      <c r="K245" s="34"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="33"/>
+      <c r="H245" s="33"/>
+      <c r="I245" s="33"/>
+      <c r="J245" s="33"/>
+      <c r="K245" s="33"/>
     </row>
     <row r="246" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="23" t="s">
@@ -6609,14 +6608,14 @@
         <v>336</v>
       </c>
       <c r="C246" s="23"/>
-      <c r="D246" s="34"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="34"/>
-      <c r="G246" s="34"/>
-      <c r="H246" s="34"/>
-      <c r="I246" s="34"/>
-      <c r="J246" s="34"/>
-      <c r="K246" s="34"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="33"/>
+      <c r="I246" s="33"/>
+      <c r="J246" s="33"/>
+      <c r="K246" s="33"/>
     </row>
     <row r="247" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="23" t="s">
@@ -6626,14 +6625,14 @@
         <v>336</v>
       </c>
       <c r="C247" s="23"/>
-      <c r="D247" s="34"/>
-      <c r="E247" s="34"/>
-      <c r="F247" s="34"/>
-      <c r="G247" s="34"/>
-      <c r="H247" s="34"/>
-      <c r="I247" s="34"/>
-      <c r="J247" s="34"/>
-      <c r="K247" s="34"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="33"/>
+      <c r="F247" s="33"/>
+      <c r="G247" s="33"/>
+      <c r="H247" s="33"/>
+      <c r="I247" s="33"/>
+      <c r="J247" s="33"/>
+      <c r="K247" s="33"/>
     </row>
     <row r="248" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="23" t="s">
@@ -6643,14 +6642,14 @@
         <v>336</v>
       </c>
       <c r="C248" s="23"/>
-      <c r="D248" s="34"/>
-      <c r="E248" s="34"/>
-      <c r="F248" s="34"/>
-      <c r="G248" s="34"/>
-      <c r="H248" s="34"/>
-      <c r="I248" s="34"/>
-      <c r="J248" s="34"/>
-      <c r="K248" s="34"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
+      <c r="F248" s="33"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="33"/>
+      <c r="I248" s="33"/>
+      <c r="J248" s="33"/>
+      <c r="K248" s="33"/>
     </row>
     <row r="249" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="23" t="s">
@@ -6660,14 +6659,14 @@
         <v>336</v>
       </c>
       <c r="C249" s="23"/>
-      <c r="D249" s="34"/>
-      <c r="E249" s="34"/>
-      <c r="F249" s="34"/>
-      <c r="G249" s="34"/>
-      <c r="H249" s="34"/>
-      <c r="I249" s="34"/>
-      <c r="J249" s="34"/>
-      <c r="K249" s="34"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="33"/>
+      <c r="G249" s="33"/>
+      <c r="H249" s="33"/>
+      <c r="I249" s="33"/>
+      <c r="J249" s="33"/>
+      <c r="K249" s="33"/>
     </row>
     <row r="250" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="23" t="s">
@@ -6677,14 +6676,14 @@
         <v>336</v>
       </c>
       <c r="C250" s="23"/>
-      <c r="D250" s="34"/>
-      <c r="E250" s="34"/>
-      <c r="F250" s="34"/>
-      <c r="G250" s="34"/>
-      <c r="H250" s="34"/>
-      <c r="I250" s="34"/>
-      <c r="J250" s="34"/>
-      <c r="K250" s="34"/>
+      <c r="D250" s="33"/>
+      <c r="E250" s="33"/>
+      <c r="F250" s="33"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="33"/>
+      <c r="I250" s="33"/>
+      <c r="J250" s="33"/>
+      <c r="K250" s="33"/>
     </row>
     <row r="251" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="23" t="s">
@@ -6694,14 +6693,14 @@
         <v>336</v>
       </c>
       <c r="C251" s="23"/>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
-      <c r="F251" s="34"/>
-      <c r="G251" s="34"/>
-      <c r="H251" s="34"/>
-      <c r="I251" s="34"/>
-      <c r="J251" s="34"/>
-      <c r="K251" s="34"/>
+      <c r="D251" s="33"/>
+      <c r="E251" s="33"/>
+      <c r="F251" s="33"/>
+      <c r="G251" s="33"/>
+      <c r="H251" s="33"/>
+      <c r="I251" s="33"/>
+      <c r="J251" s="33"/>
+      <c r="K251" s="33"/>
     </row>
     <row r="252" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="23" t="s">
@@ -6711,14 +6710,14 @@
         <v>336</v>
       </c>
       <c r="C252" s="23"/>
-      <c r="D252" s="34"/>
-      <c r="E252" s="34"/>
-      <c r="F252" s="34"/>
-      <c r="G252" s="34"/>
-      <c r="H252" s="34"/>
-      <c r="I252" s="34"/>
-      <c r="J252" s="34"/>
-      <c r="K252" s="34"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="33"/>
+      <c r="F252" s="33"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="33"/>
+      <c r="I252" s="33"/>
+      <c r="J252" s="33"/>
+      <c r="K252" s="33"/>
     </row>
     <row r="253" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="23" t="s">
@@ -6728,14 +6727,14 @@
         <v>336</v>
       </c>
       <c r="C253" s="23"/>
-      <c r="D253" s="34"/>
-      <c r="E253" s="34"/>
-      <c r="F253" s="34"/>
-      <c r="G253" s="34"/>
-      <c r="H253" s="34"/>
-      <c r="I253" s="34"/>
-      <c r="J253" s="34"/>
-      <c r="K253" s="34"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="33"/>
+      <c r="F253" s="33"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="33"/>
+      <c r="I253" s="33"/>
+      <c r="J253" s="33"/>
+      <c r="K253" s="33"/>
     </row>
     <row r="254" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="23" t="s">
@@ -6745,14 +6744,14 @@
         <v>336</v>
       </c>
       <c r="C254" s="23"/>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="34"/>
-      <c r="G254" s="34"/>
-      <c r="H254" s="34"/>
-      <c r="I254" s="34"/>
-      <c r="J254" s="34"/>
-      <c r="K254" s="34"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="33"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="33"/>
+      <c r="I254" s="33"/>
+      <c r="J254" s="33"/>
+      <c r="K254" s="33"/>
     </row>
     <row r="255" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="23" t="s">
@@ -6762,14 +6761,14 @@
         <v>336</v>
       </c>
       <c r="C255" s="23"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
-      <c r="H255" s="34"/>
-      <c r="I255" s="34"/>
-      <c r="J255" s="34"/>
-      <c r="K255" s="34"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="33"/>
+      <c r="F255" s="33"/>
+      <c r="G255" s="33"/>
+      <c r="H255" s="33"/>
+      <c r="I255" s="33"/>
+      <c r="J255" s="33"/>
+      <c r="K255" s="33"/>
     </row>
     <row r="256" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="23" t="s">
@@ -6779,14 +6778,14 @@
         <v>336</v>
       </c>
       <c r="C256" s="23"/>
-      <c r="D256" s="34"/>
-      <c r="E256" s="34"/>
-      <c r="F256" s="34"/>
-      <c r="G256" s="34"/>
-      <c r="H256" s="34"/>
-      <c r="I256" s="34"/>
-      <c r="J256" s="34"/>
-      <c r="K256" s="34"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="33"/>
+      <c r="F256" s="33"/>
+      <c r="G256" s="33"/>
+      <c r="H256" s="33"/>
+      <c r="I256" s="33"/>
+      <c r="J256" s="33"/>
+      <c r="K256" s="33"/>
     </row>
     <row r="257" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="23" t="s">
@@ -6796,14 +6795,14 @@
         <v>336</v>
       </c>
       <c r="C257" s="23"/>
-      <c r="D257" s="34"/>
-      <c r="E257" s="34"/>
-      <c r="F257" s="34"/>
-      <c r="G257" s="34"/>
-      <c r="H257" s="34"/>
-      <c r="I257" s="34"/>
-      <c r="J257" s="34"/>
-      <c r="K257" s="34"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="33"/>
+      <c r="F257" s="33"/>
+      <c r="G257" s="33"/>
+      <c r="H257" s="33"/>
+      <c r="I257" s="33"/>
+      <c r="J257" s="33"/>
+      <c r="K257" s="33"/>
     </row>
     <row r="258" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="23" t="s">
@@ -6813,14 +6812,14 @@
         <v>336</v>
       </c>
       <c r="C258" s="23"/>
-      <c r="D258" s="34"/>
-      <c r="E258" s="34"/>
-      <c r="F258" s="34"/>
-      <c r="G258" s="34"/>
-      <c r="H258" s="34"/>
-      <c r="I258" s="34"/>
-      <c r="J258" s="34"/>
-      <c r="K258" s="34"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="33"/>
+      <c r="F258" s="33"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="33"/>
+      <c r="I258" s="33"/>
+      <c r="J258" s="33"/>
+      <c r="K258" s="33"/>
     </row>
     <row r="259" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="23" t="s">
@@ -6830,14 +6829,14 @@
         <v>336</v>
       </c>
       <c r="C259" s="23"/>
-      <c r="D259" s="34"/>
-      <c r="E259" s="34"/>
-      <c r="F259" s="34"/>
-      <c r="G259" s="34"/>
-      <c r="H259" s="34"/>
-      <c r="I259" s="34"/>
-      <c r="J259" s="34"/>
-      <c r="K259" s="34"/>
+      <c r="D259" s="33"/>
+      <c r="E259" s="33"/>
+      <c r="F259" s="33"/>
+      <c r="G259" s="33"/>
+      <c r="H259" s="33"/>
+      <c r="I259" s="33"/>
+      <c r="J259" s="33"/>
+      <c r="K259" s="33"/>
     </row>
     <row r="260" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="23" t="s">
@@ -6847,14 +6846,14 @@
         <v>336</v>
       </c>
       <c r="C260" s="23"/>
-      <c r="D260" s="34"/>
-      <c r="E260" s="34"/>
-      <c r="F260" s="34"/>
-      <c r="G260" s="34"/>
-      <c r="H260" s="34"/>
-      <c r="I260" s="34"/>
-      <c r="J260" s="34"/>
-      <c r="K260" s="34"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33"/>
+      <c r="F260" s="33"/>
+      <c r="G260" s="33"/>
+      <c r="H260" s="33"/>
+      <c r="I260" s="33"/>
+      <c r="J260" s="33"/>
+      <c r="K260" s="33"/>
     </row>
     <row r="261" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="23" t="s">
@@ -6864,14 +6863,14 @@
         <v>336</v>
       </c>
       <c r="C261" s="23"/>
-      <c r="D261" s="34"/>
-      <c r="E261" s="34"/>
-      <c r="F261" s="34"/>
-      <c r="G261" s="34"/>
-      <c r="H261" s="34"/>
-      <c r="I261" s="34"/>
-      <c r="J261" s="34"/>
-      <c r="K261" s="34"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="33"/>
+      <c r="F261" s="33"/>
+      <c r="G261" s="33"/>
+      <c r="H261" s="33"/>
+      <c r="I261" s="33"/>
+      <c r="J261" s="33"/>
+      <c r="K261" s="33"/>
     </row>
     <row r="262" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="23" t="s">
@@ -6881,14 +6880,14 @@
         <v>336</v>
       </c>
       <c r="C262" s="23"/>
-      <c r="D262" s="34"/>
-      <c r="E262" s="34"/>
-      <c r="F262" s="34"/>
-      <c r="G262" s="34"/>
-      <c r="H262" s="34"/>
-      <c r="I262" s="34"/>
-      <c r="J262" s="34"/>
-      <c r="K262" s="34"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="33"/>
+      <c r="G262" s="33"/>
+      <c r="H262" s="33"/>
+      <c r="I262" s="33"/>
+      <c r="J262" s="33"/>
+      <c r="K262" s="33"/>
     </row>
     <row r="263" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="23" t="s">
@@ -6898,14 +6897,14 @@
         <v>336</v>
       </c>
       <c r="C263" s="23"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="34"/>
-      <c r="G263" s="34"/>
-      <c r="H263" s="34"/>
-      <c r="I263" s="34"/>
-      <c r="J263" s="34"/>
-      <c r="K263" s="34"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+      <c r="F263" s="33"/>
+      <c r="G263" s="33"/>
+      <c r="H263" s="33"/>
+      <c r="I263" s="33"/>
+      <c r="J263" s="33"/>
+      <c r="K263" s="33"/>
     </row>
     <row r="264" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="23" t="s">
@@ -6915,14 +6914,14 @@
         <v>336</v>
       </c>
       <c r="C264" s="23"/>
-      <c r="D264" s="34"/>
-      <c r="E264" s="34"/>
-      <c r="F264" s="34"/>
-      <c r="G264" s="34"/>
-      <c r="H264" s="34"/>
-      <c r="I264" s="34"/>
-      <c r="J264" s="34"/>
-      <c r="K264" s="34"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="33"/>
+      <c r="F264" s="33"/>
+      <c r="G264" s="33"/>
+      <c r="H264" s="33"/>
+      <c r="I264" s="33"/>
+      <c r="J264" s="33"/>
+      <c r="K264" s="33"/>
     </row>
     <row r="265" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="23" t="s">
@@ -6948,14 +6947,14 @@
         <v>336</v>
       </c>
       <c r="C266" s="23"/>
-      <c r="D266" s="34"/>
-      <c r="E266" s="34"/>
-      <c r="F266" s="34"/>
-      <c r="G266" s="34"/>
-      <c r="H266" s="34"/>
-      <c r="I266" s="34"/>
-      <c r="J266" s="34"/>
-      <c r="K266" s="34"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="33"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="33"/>
+      <c r="I266" s="33"/>
+      <c r="J266" s="33"/>
+      <c r="K266" s="33"/>
     </row>
     <row r="267" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="23" t="s">
@@ -6965,31 +6964,31 @@
         <v>348</v>
       </c>
       <c r="C267" s="23"/>
-      <c r="D267" s="34"/>
-      <c r="E267" s="34"/>
-      <c r="F267" s="34"/>
-      <c r="G267" s="34"/>
-      <c r="H267" s="34"/>
-      <c r="I267" s="34"/>
-      <c r="J267" s="34"/>
-      <c r="K267" s="34"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
+      <c r="F267" s="33"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="33"/>
+      <c r="I267" s="33"/>
+      <c r="J267" s="33"/>
+      <c r="K267" s="33"/>
     </row>
     <row r="268" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="36" t="s">
+      <c r="A268" s="35" t="s">
         <v>419</v>
       </c>
       <c r="B268" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C268" s="23"/>
-      <c r="D268" s="34"/>
-      <c r="E268" s="34"/>
-      <c r="F268" s="34"/>
-      <c r="G268" s="34"/>
-      <c r="H268" s="34"/>
-      <c r="I268" s="34"/>
-      <c r="J268" s="34"/>
-      <c r="K268" s="34"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="33"/>
+      <c r="F268" s="33"/>
+      <c r="G268" s="33"/>
+      <c r="H268" s="33"/>
+      <c r="I268" s="33"/>
+      <c r="J268" s="33"/>
+      <c r="K268" s="33"/>
     </row>
     <row r="269" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
@@ -6999,14 +6998,14 @@
         <v>336</v>
       </c>
       <c r="C269" s="23"/>
-      <c r="D269" s="34"/>
-      <c r="E269" s="34"/>
-      <c r="F269" s="34"/>
-      <c r="G269" s="34"/>
-      <c r="H269" s="34"/>
-      <c r="I269" s="34"/>
-      <c r="J269" s="34"/>
-      <c r="K269" s="34"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="33"/>
+      <c r="I269" s="33"/>
+      <c r="J269" s="33"/>
+      <c r="K269" s="33"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="23" t="s">
@@ -7057,7 +7056,7 @@
       <c r="K272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="36" t="s">
+      <c r="A273" s="35" t="s">
         <v>425</v>
       </c>
       <c r="B273" s="23" t="s">
@@ -7216,25 +7215,36 @@
       <c r="J282" s="8"/>
       <c r="K282" s="8"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
-      <c r="H283" s="8"/>
-      <c r="I283" s="8"/>
-      <c r="J283" s="8"/>
-      <c r="K283" s="8"/>
+    <row r="283" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B283" s="25"/>
+      <c r="C283" s="25"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="8"/>
-      <c r="H284" s="8"/>
-      <c r="I284" s="8"/>
-      <c r="J284" s="8"/>
-      <c r="K284" s="8"/>
+      <c r="A284" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13"/>
+      <c r="G284" s="13"/>
+      <c r="H284" s="13"/>
+      <c r="I284" s="13"/>
+      <c r="J284" s="13"/>
+      <c r="K284" s="13"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D285" s="8"/>
@@ -7798,114 +7808,114 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+    <row r="1" s="38" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="B4" s="40" t="s">
+    <row r="2" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>146</v>
@@ -7913,7 +7923,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>146</v>
@@ -7921,66 +7931,66 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="B12" s="43" t="s">
+    </row>
+    <row r="11" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="B12" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>242</v>
@@ -7995,7 +8005,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -8011,7 +8021,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>29</v>
@@ -8026,7 +8036,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>29</v>
@@ -8039,64 +8049,64 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+    <row r="18" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="C20" s="42" t="s">
+    <row r="20" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -8108,13 +8118,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -8126,13 +8136,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -8142,23 +8152,23 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43" t="s">
-        <v>468</v>
-      </c>
-      <c r="B24" s="43" t="s">
+    <row r="24" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>469</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="C24" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="8"/>
@@ -8212,13 +8222,13 @@
     </row>
     <row r="30" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -18258,26 +18268,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="76.62"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -18526,7 +18536,7 @@
     </row>
     <row r="15" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>146</v>
@@ -18584,7 +18594,7 @@
     </row>
     <row r="20" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>37</v>
@@ -18632,7 +18642,7 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>48</v>
@@ -18643,7 +18653,7 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>48</v>
@@ -18734,7 +18744,7 @@
     </row>
     <row r="34" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>64</v>
@@ -18752,7 +18762,7 @@
     </row>
     <row r="35" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>67</v>
@@ -18908,7 +18918,7 @@
     </row>
     <row r="46" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>81</v>
@@ -19225,10 +19235,10 @@
     </row>
     <row r="68" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="8"/>
@@ -19257,19 +19267,19 @@
     </row>
     <row r="70" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
     </row>
     <row r="71" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
@@ -19289,7 +19299,7 @@
     </row>
     <row r="72" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="22" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>48</v>
@@ -19300,7 +19310,7 @@
     </row>
     <row r="73" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="22" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>48</v>
@@ -19430,7 +19440,7 @@
       <c r="B81" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="25" t="s">
         <v>163</v>
       </c>
       <c r="D81" s="11"/>
@@ -19500,7 +19510,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>169</v>
@@ -19766,7 +19776,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
         <v>200</v>
       </c>
@@ -19780,7 +19790,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
         <v>202</v>
       </c>
@@ -19798,134 +19808,134 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="27" t="s">
+    <row r="103" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C103" s="28"/>
-    </row>
-    <row r="104" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="27" t="s">
+      <c r="C103" s="27"/>
+    </row>
+    <row r="104" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="105" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="27" t="s">
+    <row r="105" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="28"/>
-    </row>
-    <row r="106" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="27" t="s">
+      <c r="C105" s="27"/>
+    </row>
+    <row r="106" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C106" s="28"/>
-    </row>
-    <row r="107" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="27" t="s">
+      <c r="C106" s="27"/>
+    </row>
+    <row r="107" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="28"/>
-    </row>
-    <row r="108" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="27" t="s">
+      <c r="C107" s="27"/>
+    </row>
+    <row r="108" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="28"/>
-    </row>
-    <row r="109" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="27" t="s">
+      <c r="C108" s="27"/>
+    </row>
+    <row r="109" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="28"/>
-    </row>
-    <row r="110" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="27" t="s">
+      <c r="C109" s="27"/>
+    </row>
+    <row r="110" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="28"/>
+      <c r="C110" s="27"/>
     </row>
     <row r="111" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="30"/>
+      <c r="C111" s="29"/>
     </row>
     <row r="112" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B112" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="C112" s="30"/>
+      <c r="B112" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="C112" s="29"/>
     </row>
     <row r="113" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C113" s="26"/>
+      <c r="C113" s="25"/>
     </row>
     <row r="114" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="28"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -19934,10 +19944,10 @@
       <c r="A116" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="26"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -20031,7 +20041,7 @@
       <c r="A122" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C122" s="26"/>
+      <c r="C122" s="25"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -20103,7 +20113,7 @@
       <c r="B126" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="25" t="s">
         <v>242</v>
       </c>
       <c r="D126" s="11"/>
@@ -20266,10 +20276,10 @@
       <c r="K135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="30" t="s">
         <v>269</v>
       </c>
       <c r="D136" s="8"/>
@@ -20282,10 +20292,10 @@
       <c r="K136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="30" t="s">
         <v>146</v>
       </c>
       <c r="D137" s="8"/>
@@ -20298,10 +20308,10 @@
       <c r="K137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="30" t="s">
         <v>272</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -20704,8 +20714,8 @@
       <c r="A163" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
@@ -20748,7 +20758,7 @@
       <c r="K165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="26" t="s">
+      <c r="A166" s="25" t="s">
         <v>324</v>
       </c>
       <c r="D166" s="8"/>
@@ -20777,7 +20787,7 @@
       <c r="K167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="26" t="s">
+      <c r="A168" s="25" t="s">
         <v>327</v>
       </c>
       <c r="D168" s="8"/>
@@ -20790,10 +20800,10 @@
       <c r="K168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="B169" s="33" t="s">
+      <c r="B169" s="32" t="s">
         <v>329</v>
       </c>
       <c r="D169" s="8"/>
@@ -20806,10 +20816,10 @@
       <c r="K169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="B170" s="33" t="s">
+      <c r="B170" s="32" t="s">
         <v>331</v>
       </c>
       <c r="D170" s="8"/>
@@ -20829,29 +20839,29 @@
         <v>333</v>
       </c>
       <c r="C171" s="23"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="34"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="34"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="33"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="33"/>
     </row>
     <row r="172" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="34" t="s">
         <v>334</v>
       </c>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="34"/>
-      <c r="H172" s="34"/>
-      <c r="I172" s="34"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="34"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="33"/>
+      <c r="K172" s="33"/>
     </row>
     <row r="173" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="23" t="s">
@@ -20861,14 +20871,14 @@
         <v>336</v>
       </c>
       <c r="C173" s="23"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="34"/>
-      <c r="I173" s="34"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="34"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="33"/>
+      <c r="K173" s="33"/>
     </row>
     <row r="174" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="23" t="s">
@@ -20878,14 +20888,14 @@
         <v>336</v>
       </c>
       <c r="C174" s="23"/>
-      <c r="D174" s="34"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="34"/>
-      <c r="G174" s="34"/>
-      <c r="H174" s="34"/>
-      <c r="I174" s="34"/>
-      <c r="J174" s="34"/>
-      <c r="K174" s="34"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="33"/>
+      <c r="K174" s="33"/>
     </row>
     <row r="175" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="23" t="s">
@@ -20895,14 +20905,14 @@
         <v>336</v>
       </c>
       <c r="C175" s="23"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="34"/>
-      <c r="G175" s="34"/>
-      <c r="H175" s="34"/>
-      <c r="I175" s="34"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="34"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="33"/>
+      <c r="I175" s="33"/>
+      <c r="J175" s="33"/>
+      <c r="K175" s="33"/>
     </row>
     <row r="176" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="23" t="s">
@@ -20912,14 +20922,14 @@
         <v>336</v>
       </c>
       <c r="C176" s="23"/>
-      <c r="D176" s="34"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="34"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="34"/>
-      <c r="I176" s="34"/>
-      <c r="J176" s="34"/>
-      <c r="K176" s="34"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="33"/>
     </row>
     <row r="177" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="23" t="s">
@@ -20929,14 +20939,14 @@
         <v>336</v>
       </c>
       <c r="C177" s="23"/>
-      <c r="D177" s="34"/>
-      <c r="E177" s="34"/>
-      <c r="F177" s="34"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="34"/>
-      <c r="I177" s="34"/>
-      <c r="J177" s="34"/>
-      <c r="K177" s="34"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
+      <c r="J177" s="33"/>
+      <c r="K177" s="33"/>
     </row>
     <row r="178" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="23" t="s">
@@ -20946,14 +20956,14 @@
         <v>336</v>
       </c>
       <c r="C178" s="23"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="34"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="34"/>
-      <c r="I178" s="34"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="34"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="33"/>
+      <c r="K178" s="33"/>
     </row>
     <row r="179" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="23" t="s">
@@ -20963,14 +20973,14 @@
         <v>336</v>
       </c>
       <c r="C179" s="23"/>
-      <c r="D179" s="34"/>
-      <c r="E179" s="34"/>
-      <c r="F179" s="34"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="34"/>
-      <c r="I179" s="34"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="34"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="33"/>
+      <c r="I179" s="33"/>
+      <c r="J179" s="33"/>
+      <c r="K179" s="33"/>
     </row>
     <row r="180" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="23" t="s">
@@ -20980,14 +20990,14 @@
         <v>336</v>
       </c>
       <c r="C180" s="23"/>
-      <c r="D180" s="34"/>
-      <c r="E180" s="34"/>
-      <c r="F180" s="34"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="34"/>
-      <c r="I180" s="34"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="34"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="33"/>
+      <c r="J180" s="33"/>
+      <c r="K180" s="33"/>
     </row>
     <row r="181" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="23" t="s">
@@ -20997,14 +21007,14 @@
         <v>336</v>
       </c>
       <c r="C181" s="23"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="34"/>
-      <c r="I181" s="34"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="34"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="33"/>
+      <c r="I181" s="33"/>
+      <c r="J181" s="33"/>
+      <c r="K181" s="33"/>
     </row>
     <row r="182" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="23" t="s">
@@ -21014,14 +21024,14 @@
         <v>336</v>
       </c>
       <c r="C182" s="23"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="34"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="34"/>
-      <c r="I182" s="34"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="34"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="33"/>
     </row>
     <row r="183" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="23" t="s">
@@ -21031,14 +21041,14 @@
         <v>336</v>
       </c>
       <c r="C183" s="23"/>
-      <c r="D183" s="34"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="34"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="34"/>
-      <c r="I183" s="34"/>
-      <c r="J183" s="34"/>
-      <c r="K183" s="34"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="33"/>
+      <c r="I183" s="33"/>
+      <c r="J183" s="33"/>
+      <c r="K183" s="33"/>
     </row>
     <row r="184" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="23" t="s">
@@ -21048,14 +21058,14 @@
         <v>336</v>
       </c>
       <c r="C184" s="23"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="34"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="34"/>
-      <c r="I184" s="34"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="34"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="33"/>
+      <c r="J184" s="33"/>
+      <c r="K184" s="33"/>
     </row>
     <row r="185" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="23" t="s">
@@ -21065,14 +21075,14 @@
         <v>336</v>
       </c>
       <c r="C185" s="23"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34"/>
-      <c r="I185" s="34"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="34"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="33"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="33"/>
+      <c r="J185" s="33"/>
+      <c r="K185" s="33"/>
     </row>
     <row r="186" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="23" t="s">
@@ -21082,14 +21092,14 @@
         <v>336</v>
       </c>
       <c r="C186" s="23"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="34"/>
-      <c r="I186" s="34"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="34"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
+      <c r="J186" s="33"/>
+      <c r="K186" s="33"/>
     </row>
     <row r="187" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="23" t="s">
@@ -21099,14 +21109,14 @@
         <v>336</v>
       </c>
       <c r="C187" s="23"/>
-      <c r="D187" s="34"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="34"/>
-      <c r="I187" s="34"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="34"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
+      <c r="J187" s="33"/>
+      <c r="K187" s="33"/>
     </row>
     <row r="188" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="23" t="s">
@@ -21116,14 +21126,14 @@
         <v>336</v>
       </c>
       <c r="C188" s="23"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="34"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="34"/>
-      <c r="I188" s="34"/>
-      <c r="J188" s="34"/>
-      <c r="K188" s="34"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
+      <c r="I188" s="33"/>
+      <c r="J188" s="33"/>
+      <c r="K188" s="33"/>
     </row>
     <row r="189" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="23" t="s">
@@ -21133,14 +21143,14 @@
         <v>336</v>
       </c>
       <c r="C189" s="23"/>
-      <c r="D189" s="34"/>
-      <c r="E189" s="34"/>
-      <c r="F189" s="34"/>
-      <c r="G189" s="34"/>
-      <c r="H189" s="34"/>
-      <c r="I189" s="34"/>
-      <c r="J189" s="34"/>
-      <c r="K189" s="34"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="33"/>
+      <c r="J189" s="33"/>
+      <c r="K189" s="33"/>
     </row>
     <row r="190" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="23" t="s">
@@ -21150,14 +21160,14 @@
         <v>336</v>
       </c>
       <c r="C190" s="23"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="34"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="34"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="33"/>
+      <c r="J190" s="33"/>
+      <c r="K190" s="33"/>
     </row>
     <row r="191" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="23" t="s">
@@ -21167,14 +21177,14 @@
         <v>336</v>
       </c>
       <c r="C191" s="23"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="34"/>
-      <c r="G191" s="34"/>
-      <c r="H191" s="34"/>
-      <c r="I191" s="34"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="34"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="33"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="33"/>
+      <c r="J191" s="33"/>
+      <c r="K191" s="33"/>
     </row>
     <row r="192" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="23" t="s">
@@ -21184,14 +21194,14 @@
         <v>336</v>
       </c>
       <c r="C192" s="23"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="34"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="34"/>
-      <c r="I192" s="34"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="34"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="33"/>
+      <c r="I192" s="33"/>
+      <c r="J192" s="33"/>
+      <c r="K192" s="33"/>
     </row>
     <row r="193" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="23" t="s">
@@ -21201,14 +21211,14 @@
         <v>336</v>
       </c>
       <c r="C193" s="23"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="34"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="34"/>
-      <c r="I193" s="34"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="34"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="33"/>
+      <c r="I193" s="33"/>
+      <c r="J193" s="33"/>
+      <c r="K193" s="33"/>
     </row>
     <row r="194" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="23" t="s">
@@ -21218,14 +21228,14 @@
         <v>336</v>
       </c>
       <c r="C194" s="23"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="34"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="34"/>
-      <c r="I194" s="34"/>
-      <c r="J194" s="34"/>
-      <c r="K194" s="34"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33"/>
+      <c r="I194" s="33"/>
+      <c r="J194" s="33"/>
+      <c r="K194" s="33"/>
     </row>
     <row r="195" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="23" t="s">
@@ -21235,14 +21245,14 @@
         <v>336</v>
       </c>
       <c r="C195" s="23"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="34"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="34"/>
-      <c r="I195" s="34"/>
-      <c r="J195" s="34"/>
-      <c r="K195" s="34"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
+      <c r="I195" s="33"/>
+      <c r="J195" s="33"/>
+      <c r="K195" s="33"/>
     </row>
     <row r="196" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="23" t="s">
@@ -21252,14 +21262,14 @@
         <v>336</v>
       </c>
       <c r="C196" s="23"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="34"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="34"/>
-      <c r="I196" s="34"/>
-      <c r="J196" s="34"/>
-      <c r="K196" s="34"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="33"/>
+      <c r="J196" s="33"/>
+      <c r="K196" s="33"/>
     </row>
     <row r="197" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="23" t="s">
@@ -21269,14 +21279,14 @@
         <v>336</v>
       </c>
       <c r="C197" s="23"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="34"/>
-      <c r="F197" s="34"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="34"/>
-      <c r="I197" s="34"/>
-      <c r="J197" s="34"/>
-      <c r="K197" s="34"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+      <c r="I197" s="33"/>
+      <c r="J197" s="33"/>
+      <c r="K197" s="33"/>
     </row>
     <row r="198" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="23" t="s">
@@ -21286,14 +21296,14 @@
         <v>336</v>
       </c>
       <c r="C198" s="23"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="34"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="34"/>
-      <c r="I198" s="34"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="34"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
+      <c r="J198" s="33"/>
+      <c r="K198" s="33"/>
     </row>
     <row r="199" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="23" t="s">
@@ -21303,14 +21313,14 @@
         <v>336</v>
       </c>
       <c r="C199" s="23"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="34"/>
-      <c r="I199" s="34"/>
-      <c r="J199" s="34"/>
-      <c r="K199" s="34"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="33"/>
+      <c r="J199" s="33"/>
+      <c r="K199" s="33"/>
     </row>
     <row r="200" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="23" t="s">
@@ -21320,14 +21330,14 @@
         <v>336</v>
       </c>
       <c r="C200" s="23"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="34"/>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="34"/>
-      <c r="J200" s="34"/>
-      <c r="K200" s="34"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="33"/>
+      <c r="J200" s="33"/>
+      <c r="K200" s="33"/>
     </row>
     <row r="201" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="23" t="s">
@@ -21337,14 +21347,14 @@
         <v>336</v>
       </c>
       <c r="C201" s="23"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="34"/>
-      <c r="F201" s="34"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="34"/>
-      <c r="I201" s="34"/>
-      <c r="J201" s="34"/>
-      <c r="K201" s="34"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
+      <c r="I201" s="33"/>
+      <c r="J201" s="33"/>
+      <c r="K201" s="33"/>
     </row>
     <row r="202" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="23" t="s">
@@ -21354,14 +21364,14 @@
         <v>336</v>
       </c>
       <c r="C202" s="23"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="34"/>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="34"/>
-      <c r="I202" s="34"/>
-      <c r="J202" s="34"/>
-      <c r="K202" s="34"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="33"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="33"/>
+      <c r="J202" s="33"/>
+      <c r="K202" s="33"/>
     </row>
     <row r="203" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="23" t="s">
@@ -21371,14 +21381,14 @@
         <v>336</v>
       </c>
       <c r="C203" s="23"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
-      <c r="I203" s="34"/>
-      <c r="J203" s="34"/>
-      <c r="K203" s="34"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="33"/>
+      <c r="J203" s="33"/>
+      <c r="K203" s="33"/>
     </row>
     <row r="204" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="23" t="s">
@@ -21388,14 +21398,14 @@
         <v>336</v>
       </c>
       <c r="C204" s="23"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="34"/>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
-      <c r="I204" s="34"/>
-      <c r="J204" s="34"/>
-      <c r="K204" s="34"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="33"/>
+      <c r="J204" s="33"/>
+      <c r="K204" s="33"/>
     </row>
     <row r="205" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="23" t="s">
@@ -21405,14 +21415,14 @@
         <v>336</v>
       </c>
       <c r="C205" s="23"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="34"/>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
-      <c r="I205" s="34"/>
-      <c r="J205" s="34"/>
-      <c r="K205" s="34"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="33"/>
+      <c r="J205" s="33"/>
+      <c r="K205" s="33"/>
     </row>
     <row r="206" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="23" t="s">
@@ -21422,14 +21432,14 @@
         <v>336</v>
       </c>
       <c r="C206" s="23"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="34"/>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="34"/>
-      <c r="I206" s="34"/>
-      <c r="J206" s="34"/>
-      <c r="K206" s="34"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="33"/>
+      <c r="J206" s="33"/>
+      <c r="K206" s="33"/>
     </row>
     <row r="207" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="23" t="s">
@@ -21439,14 +21449,14 @@
         <v>336</v>
       </c>
       <c r="C207" s="23"/>
-      <c r="D207" s="34"/>
-      <c r="E207" s="34"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
-      <c r="I207" s="34"/>
-      <c r="J207" s="34"/>
-      <c r="K207" s="34"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="33"/>
+      <c r="J207" s="33"/>
+      <c r="K207" s="33"/>
     </row>
     <row r="208" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="23" t="s">
@@ -21456,14 +21466,14 @@
         <v>336</v>
       </c>
       <c r="C208" s="23"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
-      <c r="I208" s="34"/>
-      <c r="J208" s="34"/>
-      <c r="K208" s="34"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
+      <c r="J208" s="33"/>
+      <c r="K208" s="33"/>
     </row>
     <row r="209" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="23" t="s">
@@ -21473,14 +21483,14 @@
         <v>336</v>
       </c>
       <c r="C209" s="23"/>
-      <c r="D209" s="34"/>
-      <c r="E209" s="34"/>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
-      <c r="I209" s="34"/>
-      <c r="J209" s="34"/>
-      <c r="K209" s="34"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
+      <c r="I209" s="33"/>
+      <c r="J209" s="33"/>
+      <c r="K209" s="33"/>
     </row>
     <row r="210" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="23" t="s">
@@ -21490,14 +21500,14 @@
         <v>336</v>
       </c>
       <c r="C210" s="23"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="34"/>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
-      <c r="I210" s="34"/>
-      <c r="J210" s="34"/>
-      <c r="K210" s="34"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="33"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="33"/>
+      <c r="I210" s="33"/>
+      <c r="J210" s="33"/>
+      <c r="K210" s="33"/>
     </row>
     <row r="211" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="23" t="s">
@@ -21507,14 +21517,14 @@
         <v>336</v>
       </c>
       <c r="C211" s="23"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
-      <c r="I211" s="34"/>
-      <c r="J211" s="34"/>
-      <c r="K211" s="34"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="33"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="33"/>
+      <c r="I211" s="33"/>
+      <c r="J211" s="33"/>
+      <c r="K211" s="33"/>
     </row>
     <row r="212" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="23" t="s">
@@ -21524,14 +21534,14 @@
         <v>336</v>
       </c>
       <c r="C212" s="23"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="34"/>
-      <c r="J212" s="34"/>
-      <c r="K212" s="34"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="33"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="33"/>
+      <c r="I212" s="33"/>
+      <c r="J212" s="33"/>
+      <c r="K212" s="33"/>
     </row>
     <row r="213" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="23" t="s">
@@ -21541,14 +21551,14 @@
         <v>336</v>
       </c>
       <c r="C213" s="23"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="34"/>
-      <c r="I213" s="34"/>
-      <c r="J213" s="34"/>
-      <c r="K213" s="34"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="33"/>
+      <c r="J213" s="33"/>
+      <c r="K213" s="33"/>
     </row>
     <row r="214" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="23" t="s">
@@ -21558,14 +21568,14 @@
         <v>336</v>
       </c>
       <c r="C214" s="23"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="34"/>
-      <c r="F214" s="34"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="34"/>
-      <c r="I214" s="34"/>
-      <c r="J214" s="34"/>
-      <c r="K214" s="34"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
+      <c r="J214" s="33"/>
+      <c r="K214" s="33"/>
     </row>
     <row r="215" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="23" t="s">
@@ -21575,14 +21585,14 @@
         <v>336</v>
       </c>
       <c r="C215" s="23"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
-      <c r="F215" s="34"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="34"/>
-      <c r="J215" s="34"/>
-      <c r="K215" s="34"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="33"/>
     </row>
     <row r="216" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="23" t="s">
@@ -21592,14 +21602,14 @@
         <v>336</v>
       </c>
       <c r="C216" s="23"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="34"/>
-      <c r="F216" s="34"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="34"/>
-      <c r="I216" s="34"/>
-      <c r="J216" s="34"/>
-      <c r="K216" s="34"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
+      <c r="J216" s="33"/>
+      <c r="K216" s="33"/>
     </row>
     <row r="217" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="23" t="s">
@@ -21609,14 +21619,14 @@
         <v>336</v>
       </c>
       <c r="C217" s="23"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="34"/>
-      <c r="J217" s="34"/>
-      <c r="K217" s="34"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="33"/>
+      <c r="J217" s="33"/>
+      <c r="K217" s="33"/>
     </row>
     <row r="218" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="23" t="s">
@@ -21626,14 +21636,14 @@
         <v>336</v>
       </c>
       <c r="C218" s="23"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="34"/>
-      <c r="F218" s="34"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="34"/>
-      <c r="I218" s="34"/>
-      <c r="J218" s="34"/>
-      <c r="K218" s="34"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
+      <c r="J218" s="33"/>
+      <c r="K218" s="33"/>
     </row>
     <row r="219" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="23" t="s">
@@ -21643,14 +21653,14 @@
         <v>336</v>
       </c>
       <c r="C219" s="23"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="34"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="34"/>
-      <c r="I219" s="34"/>
-      <c r="J219" s="34"/>
-      <c r="K219" s="34"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="33"/>
     </row>
     <row r="220" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="23" t="s">
@@ -21660,14 +21670,14 @@
         <v>336</v>
       </c>
       <c r="C220" s="23"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="34"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
-      <c r="I220" s="34"/>
-      <c r="J220" s="34"/>
-      <c r="K220" s="34"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="33"/>
+      <c r="J220" s="33"/>
+      <c r="K220" s="33"/>
     </row>
     <row r="221" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="23" t="s">
@@ -21677,14 +21687,14 @@
         <v>336</v>
       </c>
       <c r="C221" s="23"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="34"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="34"/>
-      <c r="I221" s="34"/>
-      <c r="J221" s="34"/>
-      <c r="K221" s="34"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
+      <c r="J221" s="33"/>
+      <c r="K221" s="33"/>
     </row>
     <row r="222" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="23" t="s">
@@ -21694,14 +21704,14 @@
         <v>336</v>
       </c>
       <c r="C222" s="23"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="34"/>
-      <c r="G222" s="34"/>
-      <c r="H222" s="34"/>
-      <c r="I222" s="34"/>
-      <c r="J222" s="34"/>
-      <c r="K222" s="34"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
+      <c r="J222" s="33"/>
+      <c r="K222" s="33"/>
     </row>
     <row r="223" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="23" t="s">
@@ -21711,14 +21721,14 @@
         <v>336</v>
       </c>
       <c r="C223" s="23"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="34"/>
-      <c r="F223" s="34"/>
-      <c r="G223" s="34"/>
-      <c r="H223" s="34"/>
-      <c r="I223" s="34"/>
-      <c r="J223" s="34"/>
-      <c r="K223" s="34"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
+      <c r="J223" s="33"/>
+      <c r="K223" s="33"/>
     </row>
     <row r="224" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="23" t="s">
@@ -21728,14 +21738,14 @@
         <v>336</v>
       </c>
       <c r="C224" s="23"/>
-      <c r="D224" s="34"/>
-      <c r="E224" s="34"/>
-      <c r="F224" s="34"/>
-      <c r="G224" s="34"/>
-      <c r="H224" s="34"/>
-      <c r="I224" s="34"/>
-      <c r="J224" s="34"/>
-      <c r="K224" s="34"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="33"/>
+      <c r="J224" s="33"/>
+      <c r="K224" s="33"/>
     </row>
     <row r="225" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="23" t="s">
@@ -21745,14 +21755,14 @@
         <v>336</v>
       </c>
       <c r="C225" s="23"/>
-      <c r="D225" s="34"/>
-      <c r="E225" s="34"/>
-      <c r="F225" s="34"/>
-      <c r="G225" s="34"/>
-      <c r="H225" s="34"/>
-      <c r="I225" s="34"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="34"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33"/>
+      <c r="I225" s="33"/>
+      <c r="J225" s="33"/>
+      <c r="K225" s="33"/>
     </row>
     <row r="226" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="23" t="s">
@@ -21762,14 +21772,14 @@
         <v>336</v>
       </c>
       <c r="C226" s="23"/>
-      <c r="D226" s="34"/>
-      <c r="E226" s="34"/>
-      <c r="F226" s="34"/>
-      <c r="G226" s="34"/>
-      <c r="H226" s="34"/>
-      <c r="I226" s="34"/>
-      <c r="J226" s="34"/>
-      <c r="K226" s="34"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
+      <c r="I226" s="33"/>
+      <c r="J226" s="33"/>
+      <c r="K226" s="33"/>
     </row>
     <row r="227" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="23" t="s">
@@ -21779,14 +21789,14 @@
         <v>336</v>
       </c>
       <c r="C227" s="23"/>
-      <c r="D227" s="34"/>
-      <c r="E227" s="34"/>
-      <c r="F227" s="34"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="34"/>
-      <c r="I227" s="34"/>
-      <c r="J227" s="34"/>
-      <c r="K227" s="34"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="33"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="33"/>
     </row>
     <row r="228" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="23" t="s">
@@ -21796,14 +21806,14 @@
         <v>336</v>
       </c>
       <c r="C228" s="23"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="34"/>
-      <c r="F228" s="34"/>
-      <c r="G228" s="34"/>
-      <c r="H228" s="34"/>
-      <c r="I228" s="34"/>
-      <c r="J228" s="34"/>
-      <c r="K228" s="34"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="33"/>
+      <c r="J228" s="33"/>
+      <c r="K228" s="33"/>
     </row>
     <row r="229" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="23" t="s">
@@ -21813,14 +21823,14 @@
         <v>336</v>
       </c>
       <c r="C229" s="23"/>
-      <c r="D229" s="34"/>
-      <c r="E229" s="34"/>
-      <c r="F229" s="34"/>
-      <c r="G229" s="34"/>
-      <c r="H229" s="34"/>
-      <c r="I229" s="34"/>
-      <c r="J229" s="34"/>
-      <c r="K229" s="34"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="33"/>
+      <c r="I229" s="33"/>
+      <c r="J229" s="33"/>
+      <c r="K229" s="33"/>
     </row>
     <row r="230" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="23" t="s">
@@ -21830,14 +21840,14 @@
         <v>336</v>
       </c>
       <c r="C230" s="23"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="34"/>
-      <c r="F230" s="34"/>
-      <c r="G230" s="34"/>
-      <c r="H230" s="34"/>
-      <c r="I230" s="34"/>
-      <c r="J230" s="34"/>
-      <c r="K230" s="34"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="33"/>
+      <c r="J230" s="33"/>
+      <c r="K230" s="33"/>
     </row>
     <row r="231" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="23" t="s">
@@ -21847,14 +21857,14 @@
         <v>336</v>
       </c>
       <c r="C231" s="23"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="34"/>
-      <c r="F231" s="34"/>
-      <c r="G231" s="34"/>
-      <c r="H231" s="34"/>
-      <c r="I231" s="34"/>
-      <c r="J231" s="34"/>
-      <c r="K231" s="34"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="33"/>
+      <c r="I231" s="33"/>
+      <c r="J231" s="33"/>
+      <c r="K231" s="33"/>
     </row>
     <row r="232" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="23" t="s">
@@ -21864,14 +21874,14 @@
         <v>336</v>
       </c>
       <c r="C232" s="23"/>
-      <c r="D232" s="34"/>
-      <c r="E232" s="34"/>
-      <c r="F232" s="34"/>
-      <c r="G232" s="34"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="34"/>
-      <c r="J232" s="34"/>
-      <c r="K232" s="34"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="33"/>
+      <c r="J232" s="33"/>
+      <c r="K232" s="33"/>
     </row>
     <row r="233" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="23" t="s">
@@ -21881,14 +21891,14 @@
         <v>336</v>
       </c>
       <c r="C233" s="23"/>
-      <c r="D233" s="34"/>
-      <c r="E233" s="34"/>
-      <c r="F233" s="34"/>
-      <c r="G233" s="34"/>
-      <c r="H233" s="34"/>
-      <c r="I233" s="34"/>
-      <c r="J233" s="34"/>
-      <c r="K233" s="34"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="33"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="33"/>
+      <c r="I233" s="33"/>
+      <c r="J233" s="33"/>
+      <c r="K233" s="33"/>
     </row>
     <row r="234" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="23" t="s">
@@ -21898,14 +21908,14 @@
         <v>336</v>
       </c>
       <c r="C234" s="23"/>
-      <c r="D234" s="34"/>
-      <c r="E234" s="34"/>
-      <c r="F234" s="34"/>
-      <c r="G234" s="34"/>
-      <c r="H234" s="34"/>
-      <c r="I234" s="34"/>
-      <c r="J234" s="34"/>
-      <c r="K234" s="34"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="33"/>
+      <c r="I234" s="33"/>
+      <c r="J234" s="33"/>
+      <c r="K234" s="33"/>
     </row>
     <row r="235" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="23" t="s">
@@ -21915,14 +21925,14 @@
         <v>336</v>
       </c>
       <c r="C235" s="23"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="34"/>
-      <c r="J235" s="34"/>
-      <c r="K235" s="34"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="33"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="33"/>
+      <c r="I235" s="33"/>
+      <c r="J235" s="33"/>
+      <c r="K235" s="33"/>
     </row>
     <row r="236" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="23" t="s">
@@ -21932,14 +21942,14 @@
         <v>336</v>
       </c>
       <c r="C236" s="23"/>
-      <c r="D236" s="34"/>
-      <c r="E236" s="34"/>
-      <c r="F236" s="34"/>
-      <c r="G236" s="34"/>
-      <c r="H236" s="34"/>
-      <c r="I236" s="34"/>
-      <c r="J236" s="34"/>
-      <c r="K236" s="34"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="33"/>
+      <c r="I236" s="33"/>
+      <c r="J236" s="33"/>
+      <c r="K236" s="33"/>
     </row>
     <row r="237" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="23" t="s">
@@ -21949,14 +21959,14 @@
         <v>336</v>
       </c>
       <c r="C237" s="23"/>
-      <c r="D237" s="34"/>
-      <c r="E237" s="34"/>
-      <c r="F237" s="34"/>
-      <c r="G237" s="34"/>
-      <c r="H237" s="34"/>
-      <c r="I237" s="34"/>
-      <c r="J237" s="34"/>
-      <c r="K237" s="34"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="33"/>
+      <c r="I237" s="33"/>
+      <c r="J237" s="33"/>
+      <c r="K237" s="33"/>
     </row>
     <row r="238" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="23" t="s">
@@ -21966,14 +21976,14 @@
         <v>336</v>
       </c>
       <c r="C238" s="23"/>
-      <c r="D238" s="34"/>
-      <c r="E238" s="34"/>
-      <c r="F238" s="34"/>
-      <c r="G238" s="34"/>
-      <c r="H238" s="34"/>
-      <c r="I238" s="34"/>
-      <c r="J238" s="34"/>
-      <c r="K238" s="34"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="33"/>
+      <c r="I238" s="33"/>
+      <c r="J238" s="33"/>
+      <c r="K238" s="33"/>
     </row>
     <row r="239" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="23" t="s">
@@ -21983,14 +21993,14 @@
         <v>336</v>
       </c>
       <c r="C239" s="23"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="34"/>
-      <c r="G239" s="34"/>
-      <c r="H239" s="34"/>
-      <c r="I239" s="34"/>
-      <c r="J239" s="34"/>
-      <c r="K239" s="34"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="33"/>
+      <c r="I239" s="33"/>
+      <c r="J239" s="33"/>
+      <c r="K239" s="33"/>
     </row>
     <row r="240" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="23" t="s">
@@ -22000,14 +22010,14 @@
         <v>336</v>
       </c>
       <c r="C240" s="23"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="34"/>
-      <c r="G240" s="34"/>
-      <c r="H240" s="34"/>
-      <c r="I240" s="34"/>
-      <c r="J240" s="34"/>
-      <c r="K240" s="34"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
+      <c r="F240" s="33"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="33"/>
+      <c r="I240" s="33"/>
+      <c r="J240" s="33"/>
+      <c r="K240" s="33"/>
     </row>
     <row r="241" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="23" t="s">
@@ -22017,14 +22027,14 @@
         <v>336</v>
       </c>
       <c r="C241" s="23"/>
-      <c r="D241" s="34"/>
-      <c r="E241" s="34"/>
-      <c r="F241" s="34"/>
-      <c r="G241" s="34"/>
-      <c r="H241" s="34"/>
-      <c r="I241" s="34"/>
-      <c r="J241" s="34"/>
-      <c r="K241" s="34"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="33"/>
+      <c r="F241" s="33"/>
+      <c r="G241" s="33"/>
+      <c r="H241" s="33"/>
+      <c r="I241" s="33"/>
+      <c r="J241" s="33"/>
+      <c r="K241" s="33"/>
     </row>
     <row r="242" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="23" t="s">
@@ -22034,14 +22044,14 @@
         <v>336</v>
       </c>
       <c r="C242" s="23"/>
-      <c r="D242" s="34"/>
-      <c r="E242" s="34"/>
-      <c r="F242" s="34"/>
-      <c r="G242" s="34"/>
-      <c r="H242" s="34"/>
-      <c r="I242" s="34"/>
-      <c r="J242" s="34"/>
-      <c r="K242" s="34"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="33"/>
+      <c r="F242" s="33"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="33"/>
+      <c r="I242" s="33"/>
+      <c r="J242" s="33"/>
+      <c r="K242" s="33"/>
     </row>
     <row r="243" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="23" t="s">
@@ -22051,14 +22061,14 @@
         <v>336</v>
       </c>
       <c r="C243" s="23"/>
-      <c r="D243" s="34"/>
-      <c r="E243" s="34"/>
-      <c r="F243" s="34"/>
-      <c r="G243" s="34"/>
-      <c r="H243" s="34"/>
-      <c r="I243" s="34"/>
-      <c r="J243" s="34"/>
-      <c r="K243" s="34"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
+      <c r="F243" s="33"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="33"/>
+      <c r="I243" s="33"/>
+      <c r="J243" s="33"/>
+      <c r="K243" s="33"/>
     </row>
     <row r="244" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="23" t="s">
@@ -22068,14 +22078,14 @@
         <v>336</v>
       </c>
       <c r="C244" s="23"/>
-      <c r="D244" s="34"/>
-      <c r="E244" s="34"/>
-      <c r="F244" s="34"/>
-      <c r="G244" s="34"/>
-      <c r="H244" s="34"/>
-      <c r="I244" s="34"/>
-      <c r="J244" s="34"/>
-      <c r="K244" s="34"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
+      <c r="F244" s="33"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="33"/>
+      <c r="I244" s="33"/>
+      <c r="J244" s="33"/>
+      <c r="K244" s="33"/>
     </row>
     <row r="245" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="23" t="s">
@@ -22085,14 +22095,14 @@
         <v>336</v>
       </c>
       <c r="C245" s="23"/>
-      <c r="D245" s="34"/>
-      <c r="E245" s="34"/>
-      <c r="F245" s="34"/>
-      <c r="G245" s="34"/>
-      <c r="H245" s="34"/>
-      <c r="I245" s="34"/>
-      <c r="J245" s="34"/>
-      <c r="K245" s="34"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="33"/>
+      <c r="H245" s="33"/>
+      <c r="I245" s="33"/>
+      <c r="J245" s="33"/>
+      <c r="K245" s="33"/>
     </row>
     <row r="246" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="23" t="s">
@@ -22102,18 +22112,18 @@
         <v>336</v>
       </c>
       <c r="C246" s="23"/>
-      <c r="D246" s="34"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="34"/>
-      <c r="G246" s="34"/>
-      <c r="H246" s="34"/>
-      <c r="I246" s="34"/>
-      <c r="J246" s="34"/>
-      <c r="K246" s="34"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="33"/>
+      <c r="I246" s="33"/>
+      <c r="J246" s="33"/>
+      <c r="K246" s="33"/>
     </row>
     <row r="247" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="23" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B247" s="23" t="s">
         <v>336</v>
@@ -22128,68 +22138,68 @@
       <c r="K247" s="8"/>
     </row>
     <row r="248" s="6" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="45" t="s">
-        <v>489</v>
+      <c r="A248" s="44" t="s">
+        <v>492</v>
       </c>
       <c r="B248" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C248" s="23"/>
-      <c r="D248" s="34"/>
-      <c r="E248" s="34"/>
-      <c r="F248" s="34"/>
-      <c r="G248" s="34"/>
-      <c r="H248" s="34"/>
-      <c r="I248" s="34"/>
-      <c r="J248" s="34"/>
-      <c r="K248" s="34"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
+      <c r="F248" s="33"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="33"/>
+      <c r="I248" s="33"/>
+      <c r="J248" s="33"/>
+      <c r="K248" s="33"/>
     </row>
     <row r="249" s="6" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="46" t="s">
-        <v>490</v>
+      <c r="A249" s="45" t="s">
+        <v>493</v>
       </c>
       <c r="B249" s="23" t="s">
         <v>348</v>
       </c>
       <c r="C249" s="23"/>
-      <c r="D249" s="34"/>
-      <c r="E249" s="34"/>
-      <c r="F249" s="34"/>
-      <c r="G249" s="34"/>
-      <c r="H249" s="34"/>
-      <c r="I249" s="34"/>
-      <c r="J249" s="34"/>
-      <c r="K249" s="34"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="33"/>
+      <c r="G249" s="33"/>
+      <c r="H249" s="33"/>
+      <c r="I249" s="33"/>
+      <c r="J249" s="33"/>
+      <c r="K249" s="33"/>
     </row>
     <row r="250" s="6" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="46" t="s">
-        <v>491</v>
+      <c r="A250" s="45" t="s">
+        <v>494</v>
       </c>
       <c r="B250" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C250" s="23"/>
-      <c r="D250" s="34"/>
-      <c r="E250" s="34"/>
-      <c r="F250" s="34"/>
-      <c r="G250" s="34"/>
-      <c r="H250" s="34"/>
-      <c r="I250" s="34"/>
-      <c r="J250" s="34"/>
-      <c r="K250" s="34"/>
+      <c r="D250" s="33"/>
+      <c r="E250" s="33"/>
+      <c r="F250" s="33"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="33"/>
+      <c r="I250" s="33"/>
+      <c r="J250" s="33"/>
+      <c r="K250" s="33"/>
     </row>
     <row r="251" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="23"/>
       <c r="B251" s="23"/>
       <c r="C251" s="23"/>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
-      <c r="F251" s="34"/>
-      <c r="G251" s="34"/>
-      <c r="H251" s="34"/>
-      <c r="I251" s="34"/>
-      <c r="J251" s="34"/>
-      <c r="K251" s="34"/>
+      <c r="D251" s="33"/>
+      <c r="E251" s="33"/>
+      <c r="F251" s="33"/>
+      <c r="G251" s="33"/>
+      <c r="H251" s="33"/>
+      <c r="I251" s="33"/>
+      <c r="J251" s="33"/>
+      <c r="K251" s="33"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D252" s="8"/>

--- a/config_trend.xlsx
+++ b/config_trend.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="499">
   <si>
     <t xml:space="preserve">search</t>
   </si>
@@ -1078,6 +1078,18 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;#x24;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;amp;mdash;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;amp;ndash;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">–</t>
   </si>
   <si>
     <t xml:space="preserve">### revert errata ###</t>
@@ -2078,7 +2090,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2157,6 +2169,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2301,7 +2318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2434,6 +2451,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2478,11 +2499,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2566,9 +2587,9 @@
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A284" activeCellId="0" sqref="A284"/>
+      <selection pane="bottomLeft" activeCell="B181" activeCellId="0" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5509,8 +5530,11 @@
       <c r="K180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="1" t="s">
         <v>324</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
@@ -5522,11 +5546,11 @@
       <c r="K181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B182" s="1" t="s">
+      <c r="A182" s="1" t="s">
         <v>326</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>327</v>
       </c>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
@@ -5539,7 +5563,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
@@ -5551,11 +5575,11 @@
       <c r="K183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="B184" s="32" t="s">
+      <c r="A184" s="8" t="s">
         <v>329</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
@@ -5567,10 +5591,7 @@
       <c r="K184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="B185" s="32" t="s">
+      <c r="A185" s="25" t="s">
         <v>331</v>
       </c>
       <c r="D185" s="8"/>
@@ -5582,1469 +5603,1469 @@
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
     </row>
-    <row r="186" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="23" t="s">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="C186" s="23"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="33"/>
-      <c r="K186" s="33"/>
-    </row>
-    <row r="187" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="34" t="s">
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B187" s="23"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="33"/>
-      <c r="K187" s="33"/>
+      <c r="B187" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
     </row>
     <row r="188" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C188" s="23"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="33"/>
-      <c r="K188" s="33"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="34"/>
+      <c r="F188" s="34"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="34"/>
+      <c r="I188" s="34"/>
+      <c r="J188" s="34"/>
+      <c r="K188" s="34"/>
     </row>
     <row r="189" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B189" s="23" t="s">
-        <v>336</v>
-      </c>
+      <c r="A189" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B189" s="23"/>
       <c r="C189" s="23"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="33"/>
-      <c r="K189" s="33"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="34"/>
+      <c r="J189" s="34"/>
+      <c r="K189" s="34"/>
     </row>
     <row r="190" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C190" s="23"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="33"/>
-      <c r="K190" s="33"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="34"/>
+      <c r="G190" s="34"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
     </row>
     <row r="191" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C191" s="23"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="33"/>
-      <c r="K191" s="33"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="34"/>
+      <c r="G191" s="34"/>
+      <c r="H191" s="34"/>
+      <c r="I191" s="34"/>
+      <c r="J191" s="34"/>
+      <c r="K191" s="34"/>
     </row>
     <row r="192" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B192" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B192" s="23" t="s">
-        <v>336</v>
-      </c>
       <c r="C192" s="23"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="33"/>
-      <c r="K192" s="33"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="34"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="34"/>
+      <c r="I192" s="34"/>
+      <c r="J192" s="34"/>
+      <c r="K192" s="34"/>
     </row>
     <row r="193" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C193" s="23"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="33"/>
-      <c r="K193" s="33"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="34"/>
+      <c r="I193" s="34"/>
+      <c r="J193" s="34"/>
+      <c r="K193" s="34"/>
     </row>
     <row r="194" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="23" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C194" s="23"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="33"/>
-      <c r="K194" s="33"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="34"/>
+      <c r="I194" s="34"/>
+      <c r="J194" s="34"/>
+      <c r="K194" s="34"/>
     </row>
     <row r="195" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C195" s="23"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="33"/>
-      <c r="K195" s="33"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="34"/>
+      <c r="G195" s="34"/>
+      <c r="H195" s="34"/>
+      <c r="I195" s="34"/>
+      <c r="J195" s="34"/>
+      <c r="K195" s="34"/>
     </row>
     <row r="196" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C196" s="23"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="33"/>
-      <c r="K196" s="33"/>
+      <c r="D196" s="34"/>
+      <c r="E196" s="34"/>
+      <c r="F196" s="34"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
+      <c r="I196" s="34"/>
+      <c r="J196" s="34"/>
+      <c r="K196" s="34"/>
     </row>
     <row r="197" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="23" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C197" s="23"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="33"/>
-      <c r="K197" s="33"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="34"/>
+      <c r="J197" s="34"/>
+      <c r="K197" s="34"/>
     </row>
     <row r="198" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C198" s="23"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="33"/>
-      <c r="K198" s="33"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="34"/>
+      <c r="I198" s="34"/>
+      <c r="J198" s="34"/>
+      <c r="K198" s="34"/>
     </row>
     <row r="199" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C199" s="23"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="33"/>
-      <c r="K199" s="33"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
+      <c r="I199" s="34"/>
+      <c r="J199" s="34"/>
+      <c r="K199" s="34"/>
     </row>
     <row r="200" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C200" s="23"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="33"/>
-      <c r="J200" s="33"/>
-      <c r="K200" s="33"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="34"/>
+      <c r="F200" s="34"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="34"/>
+      <c r="I200" s="34"/>
+      <c r="J200" s="34"/>
+      <c r="K200" s="34"/>
     </row>
     <row r="201" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C201" s="23"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="33"/>
-      <c r="K201" s="33"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="34"/>
+      <c r="J201" s="34"/>
+      <c r="K201" s="34"/>
     </row>
     <row r="202" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="23" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C202" s="23"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="33"/>
-      <c r="J202" s="33"/>
-      <c r="K202" s="33"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="34"/>
+      <c r="F202" s="34"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="34"/>
+      <c r="I202" s="34"/>
+      <c r="J202" s="34"/>
+      <c r="K202" s="34"/>
     </row>
     <row r="203" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C203" s="23"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="33"/>
-      <c r="K203" s="33"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="34"/>
+      <c r="I203" s="34"/>
+      <c r="J203" s="34"/>
+      <c r="K203" s="34"/>
     </row>
     <row r="204" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C204" s="23"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="33"/>
-      <c r="K204" s="33"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="34"/>
+      <c r="F204" s="34"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="34"/>
+      <c r="I204" s="34"/>
+      <c r="J204" s="34"/>
+      <c r="K204" s="34"/>
     </row>
     <row r="205" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C205" s="23"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="33"/>
-      <c r="J205" s="33"/>
-      <c r="K205" s="33"/>
+      <c r="D205" s="34"/>
+      <c r="E205" s="34"/>
+      <c r="F205" s="34"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="34"/>
+      <c r="I205" s="34"/>
+      <c r="J205" s="34"/>
+      <c r="K205" s="34"/>
     </row>
     <row r="206" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C206" s="23"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="33"/>
-      <c r="K206" s="33"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="34"/>
+      <c r="K206" s="34"/>
     </row>
     <row r="207" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C207" s="23"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="33"/>
-      <c r="K207" s="33"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
+      <c r="I207" s="34"/>
+      <c r="J207" s="34"/>
+      <c r="K207" s="34"/>
     </row>
     <row r="208" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C208" s="23"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="33"/>
-      <c r="K208" s="33"/>
+      <c r="D208" s="34"/>
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="34"/>
+      <c r="I208" s="34"/>
+      <c r="J208" s="34"/>
+      <c r="K208" s="34"/>
     </row>
     <row r="209" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="23" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C209" s="23"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="33"/>
-      <c r="K209" s="33"/>
+      <c r="D209" s="34"/>
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="34"/>
+      <c r="I209" s="34"/>
+      <c r="J209" s="34"/>
+      <c r="K209" s="34"/>
     </row>
     <row r="210" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C210" s="23"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="33"/>
-      <c r="J210" s="33"/>
-      <c r="K210" s="33"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="34"/>
+      <c r="I210" s="34"/>
+      <c r="J210" s="34"/>
+      <c r="K210" s="34"/>
     </row>
     <row r="211" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="23" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C211" s="23"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
-      <c r="J211" s="33"/>
-      <c r="K211" s="33"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="34"/>
+      <c r="K211" s="34"/>
     </row>
     <row r="212" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="23" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C212" s="23"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
-      <c r="J212" s="33"/>
-      <c r="K212" s="33"/>
+      <c r="D212" s="34"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="34"/>
+      <c r="I212" s="34"/>
+      <c r="J212" s="34"/>
+      <c r="K212" s="34"/>
     </row>
     <row r="213" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C213" s="23"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="33"/>
-      <c r="K213" s="33"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="34"/>
+      <c r="I213" s="34"/>
+      <c r="J213" s="34"/>
+      <c r="K213" s="34"/>
     </row>
     <row r="214" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="23" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C214" s="23"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="33"/>
-      <c r="J214" s="33"/>
-      <c r="K214" s="33"/>
+      <c r="D214" s="34"/>
+      <c r="E214" s="34"/>
+      <c r="F214" s="34"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="34"/>
+      <c r="I214" s="34"/>
+      <c r="J214" s="34"/>
+      <c r="K214" s="34"/>
     </row>
     <row r="215" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C215" s="23"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="33"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="34"/>
+      <c r="F215" s="34"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="34"/>
+      <c r="I215" s="34"/>
+      <c r="J215" s="34"/>
+      <c r="K215" s="34"/>
     </row>
     <row r="216" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="23" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C216" s="23"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="33"/>
-      <c r="K216" s="33"/>
+      <c r="D216" s="34"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
+      <c r="I216" s="34"/>
+      <c r="J216" s="34"/>
+      <c r="K216" s="34"/>
     </row>
     <row r="217" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C217" s="23"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="33"/>
-      <c r="K217" s="33"/>
+      <c r="D217" s="34"/>
+      <c r="E217" s="34"/>
+      <c r="F217" s="34"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="34"/>
+      <c r="I217" s="34"/>
+      <c r="J217" s="34"/>
+      <c r="K217" s="34"/>
     </row>
     <row r="218" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C218" s="23"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="33"/>
-      <c r="K218" s="33"/>
+      <c r="D218" s="34"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="34"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="34"/>
+      <c r="I218" s="34"/>
+      <c r="J218" s="34"/>
+      <c r="K218" s="34"/>
     </row>
     <row r="219" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="23" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C219" s="23"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="33"/>
-      <c r="J219" s="33"/>
-      <c r="K219" s="33"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="34"/>
+      <c r="I219" s="34"/>
+      <c r="J219" s="34"/>
+      <c r="K219" s="34"/>
     </row>
     <row r="220" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C220" s="23"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="33"/>
-      <c r="J220" s="33"/>
-      <c r="K220" s="33"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="34"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="34"/>
+      <c r="I220" s="34"/>
+      <c r="J220" s="34"/>
+      <c r="K220" s="34"/>
     </row>
     <row r="221" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="23" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C221" s="23"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="33"/>
-      <c r="J221" s="33"/>
-      <c r="K221" s="33"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="34"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="34"/>
+      <c r="I221" s="34"/>
+      <c r="J221" s="34"/>
+      <c r="K221" s="34"/>
     </row>
     <row r="222" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="23" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C222" s="23"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="33"/>
-      <c r="J222" s="33"/>
-      <c r="K222" s="33"/>
+      <c r="D222" s="34"/>
+      <c r="E222" s="34"/>
+      <c r="F222" s="34"/>
+      <c r="G222" s="34"/>
+      <c r="H222" s="34"/>
+      <c r="I222" s="34"/>
+      <c r="J222" s="34"/>
+      <c r="K222" s="34"/>
     </row>
     <row r="223" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="23" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C223" s="23"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="33"/>
-      <c r="J223" s="33"/>
-      <c r="K223" s="33"/>
+      <c r="D223" s="34"/>
+      <c r="E223" s="34"/>
+      <c r="F223" s="34"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="34"/>
+      <c r="I223" s="34"/>
+      <c r="J223" s="34"/>
+      <c r="K223" s="34"/>
     </row>
     <row r="224" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C224" s="23"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="33"/>
-      <c r="K224" s="33"/>
+      <c r="D224" s="34"/>
+      <c r="E224" s="34"/>
+      <c r="F224" s="34"/>
+      <c r="G224" s="34"/>
+      <c r="H224" s="34"/>
+      <c r="I224" s="34"/>
+      <c r="J224" s="34"/>
+      <c r="K224" s="34"/>
     </row>
     <row r="225" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="23" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C225" s="23"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="33"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="33"/>
-      <c r="J225" s="33"/>
-      <c r="K225" s="33"/>
+      <c r="D225" s="34"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="34"/>
+      <c r="G225" s="34"/>
+      <c r="H225" s="34"/>
+      <c r="I225" s="34"/>
+      <c r="J225" s="34"/>
+      <c r="K225" s="34"/>
     </row>
     <row r="226" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C226" s="23"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="33"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="33"/>
-      <c r="K226" s="33"/>
+      <c r="D226" s="34"/>
+      <c r="E226" s="34"/>
+      <c r="F226" s="34"/>
+      <c r="G226" s="34"/>
+      <c r="H226" s="34"/>
+      <c r="I226" s="34"/>
+      <c r="J226" s="34"/>
+      <c r="K226" s="34"/>
     </row>
     <row r="227" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="C227" s="23"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="33"/>
-      <c r="K227" s="33"/>
+      <c r="D227" s="34"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="34"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="34"/>
+      <c r="I227" s="34"/>
+      <c r="J227" s="34"/>
+      <c r="K227" s="34"/>
     </row>
     <row r="228" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="23" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C228" s="23"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-      <c r="I228" s="33"/>
-      <c r="J228" s="33"/>
-      <c r="K228" s="33"/>
+      <c r="D228" s="34"/>
+      <c r="E228" s="34"/>
+      <c r="F228" s="34"/>
+      <c r="G228" s="34"/>
+      <c r="H228" s="34"/>
+      <c r="I228" s="34"/>
+      <c r="J228" s="34"/>
+      <c r="K228" s="34"/>
     </row>
     <row r="229" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="23" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C229" s="23"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="33"/>
+      <c r="D229" s="34"/>
+      <c r="E229" s="34"/>
+      <c r="F229" s="34"/>
+      <c r="G229" s="34"/>
+      <c r="H229" s="34"/>
+      <c r="I229" s="34"/>
+      <c r="J229" s="34"/>
+      <c r="K229" s="34"/>
     </row>
     <row r="230" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="23" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C230" s="23"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="33"/>
-      <c r="J230" s="33"/>
-      <c r="K230" s="33"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="34"/>
+      <c r="F230" s="34"/>
+      <c r="G230" s="34"/>
+      <c r="H230" s="34"/>
+      <c r="I230" s="34"/>
+      <c r="J230" s="34"/>
+      <c r="K230" s="34"/>
     </row>
     <row r="231" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C231" s="23"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
-      <c r="I231" s="33"/>
-      <c r="J231" s="33"/>
-      <c r="K231" s="33"/>
+      <c r="D231" s="34"/>
+      <c r="E231" s="34"/>
+      <c r="F231" s="34"/>
+      <c r="G231" s="34"/>
+      <c r="H231" s="34"/>
+      <c r="I231" s="34"/>
+      <c r="J231" s="34"/>
+      <c r="K231" s="34"/>
     </row>
     <row r="232" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="23" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C232" s="23"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="33"/>
-      <c r="I232" s="33"/>
-      <c r="J232" s="33"/>
-      <c r="K232" s="33"/>
+      <c r="D232" s="34"/>
+      <c r="E232" s="34"/>
+      <c r="F232" s="34"/>
+      <c r="G232" s="34"/>
+      <c r="H232" s="34"/>
+      <c r="I232" s="34"/>
+      <c r="J232" s="34"/>
+      <c r="K232" s="34"/>
     </row>
     <row r="233" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="23" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C233" s="23"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33"/>
-      <c r="G233" s="33"/>
-      <c r="H233" s="33"/>
-      <c r="I233" s="33"/>
-      <c r="J233" s="33"/>
-      <c r="K233" s="33"/>
+      <c r="D233" s="34"/>
+      <c r="E233" s="34"/>
+      <c r="F233" s="34"/>
+      <c r="G233" s="34"/>
+      <c r="H233" s="34"/>
+      <c r="I233" s="34"/>
+      <c r="J233" s="34"/>
+      <c r="K233" s="34"/>
     </row>
     <row r="234" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C234" s="23"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="33"/>
-      <c r="I234" s="33"/>
-      <c r="J234" s="33"/>
-      <c r="K234" s="33"/>
+      <c r="D234" s="34"/>
+      <c r="E234" s="34"/>
+      <c r="F234" s="34"/>
+      <c r="G234" s="34"/>
+      <c r="H234" s="34"/>
+      <c r="I234" s="34"/>
+      <c r="J234" s="34"/>
+      <c r="K234" s="34"/>
     </row>
     <row r="235" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="23" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C235" s="23"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="33"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="33"/>
-      <c r="I235" s="33"/>
-      <c r="J235" s="33"/>
-      <c r="K235" s="33"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="34"/>
+      <c r="G235" s="34"/>
+      <c r="H235" s="34"/>
+      <c r="I235" s="34"/>
+      <c r="J235" s="34"/>
+      <c r="K235" s="34"/>
     </row>
     <row r="236" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="23" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C236" s="23"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="33"/>
-      <c r="I236" s="33"/>
-      <c r="J236" s="33"/>
-      <c r="K236" s="33"/>
+      <c r="D236" s="34"/>
+      <c r="E236" s="34"/>
+      <c r="F236" s="34"/>
+      <c r="G236" s="34"/>
+      <c r="H236" s="34"/>
+      <c r="I236" s="34"/>
+      <c r="J236" s="34"/>
+      <c r="K236" s="34"/>
     </row>
     <row r="237" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="C237" s="23"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="33"/>
-      <c r="G237" s="33"/>
-      <c r="H237" s="33"/>
-      <c r="I237" s="33"/>
-      <c r="J237" s="33"/>
-      <c r="K237" s="33"/>
+      <c r="D237" s="34"/>
+      <c r="E237" s="34"/>
+      <c r="F237" s="34"/>
+      <c r="G237" s="34"/>
+      <c r="H237" s="34"/>
+      <c r="I237" s="34"/>
+      <c r="J237" s="34"/>
+      <c r="K237" s="34"/>
     </row>
     <row r="238" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C238" s="23"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="33"/>
-      <c r="G238" s="33"/>
-      <c r="H238" s="33"/>
-      <c r="I238" s="33"/>
-      <c r="J238" s="33"/>
-      <c r="K238" s="33"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="34"/>
+      <c r="F238" s="34"/>
+      <c r="G238" s="34"/>
+      <c r="H238" s="34"/>
+      <c r="I238" s="34"/>
+      <c r="J238" s="34"/>
+      <c r="K238" s="34"/>
     </row>
     <row r="239" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="C239" s="23"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
-      <c r="F239" s="33"/>
-      <c r="G239" s="33"/>
-      <c r="H239" s="33"/>
-      <c r="I239" s="33"/>
-      <c r="J239" s="33"/>
-      <c r="K239" s="33"/>
+      <c r="D239" s="34"/>
+      <c r="E239" s="34"/>
+      <c r="F239" s="34"/>
+      <c r="G239" s="34"/>
+      <c r="H239" s="34"/>
+      <c r="I239" s="34"/>
+      <c r="J239" s="34"/>
+      <c r="K239" s="34"/>
     </row>
     <row r="240" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="23" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C240" s="23"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="33"/>
-      <c r="I240" s="33"/>
-      <c r="J240" s="33"/>
-      <c r="K240" s="33"/>
+      <c r="D240" s="34"/>
+      <c r="E240" s="34"/>
+      <c r="F240" s="34"/>
+      <c r="G240" s="34"/>
+      <c r="H240" s="34"/>
+      <c r="I240" s="34"/>
+      <c r="J240" s="34"/>
+      <c r="K240" s="34"/>
     </row>
     <row r="241" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="23" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C241" s="23"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33"/>
-      <c r="G241" s="33"/>
-      <c r="H241" s="33"/>
-      <c r="I241" s="33"/>
-      <c r="J241" s="33"/>
-      <c r="K241" s="33"/>
+      <c r="D241" s="34"/>
+      <c r="E241" s="34"/>
+      <c r="F241" s="34"/>
+      <c r="G241" s="34"/>
+      <c r="H241" s="34"/>
+      <c r="I241" s="34"/>
+      <c r="J241" s="34"/>
+      <c r="K241" s="34"/>
     </row>
     <row r="242" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C242" s="23"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33"/>
-      <c r="H242" s="33"/>
-      <c r="I242" s="33"/>
-      <c r="J242" s="33"/>
-      <c r="K242" s="33"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="34"/>
+      <c r="G242" s="34"/>
+      <c r="H242" s="34"/>
+      <c r="I242" s="34"/>
+      <c r="J242" s="34"/>
+      <c r="K242" s="34"/>
     </row>
     <row r="243" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="23" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C243" s="23"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="33"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="33"/>
-      <c r="K243" s="33"/>
+      <c r="D243" s="34"/>
+      <c r="E243" s="34"/>
+      <c r="F243" s="34"/>
+      <c r="G243" s="34"/>
+      <c r="H243" s="34"/>
+      <c r="I243" s="34"/>
+      <c r="J243" s="34"/>
+      <c r="K243" s="34"/>
     </row>
     <row r="244" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="23" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C244" s="23"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
-      <c r="I244" s="33"/>
-      <c r="J244" s="33"/>
-      <c r="K244" s="33"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="34"/>
+      <c r="F244" s="34"/>
+      <c r="G244" s="34"/>
+      <c r="H244" s="34"/>
+      <c r="I244" s="34"/>
+      <c r="J244" s="34"/>
+      <c r="K244" s="34"/>
     </row>
     <row r="245" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C245" s="23"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="33"/>
-      <c r="K245" s="33"/>
+      <c r="D245" s="34"/>
+      <c r="E245" s="34"/>
+      <c r="F245" s="34"/>
+      <c r="G245" s="34"/>
+      <c r="H245" s="34"/>
+      <c r="I245" s="34"/>
+      <c r="J245" s="34"/>
+      <c r="K245" s="34"/>
     </row>
     <row r="246" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="23" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C246" s="23"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="33"/>
-      <c r="K246" s="33"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="34"/>
+      <c r="F246" s="34"/>
+      <c r="G246" s="34"/>
+      <c r="H246" s="34"/>
+      <c r="I246" s="34"/>
+      <c r="J246" s="34"/>
+      <c r="K246" s="34"/>
     </row>
     <row r="247" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="23" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C247" s="23"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="33"/>
-      <c r="F247" s="33"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="33"/>
-      <c r="K247" s="33"/>
+      <c r="D247" s="34"/>
+      <c r="E247" s="34"/>
+      <c r="F247" s="34"/>
+      <c r="G247" s="34"/>
+      <c r="H247" s="34"/>
+      <c r="I247" s="34"/>
+      <c r="J247" s="34"/>
+      <c r="K247" s="34"/>
     </row>
     <row r="248" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="23" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C248" s="23"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="33"/>
-      <c r="I248" s="33"/>
-      <c r="J248" s="33"/>
-      <c r="K248" s="33"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="34"/>
+      <c r="F248" s="34"/>
+      <c r="G248" s="34"/>
+      <c r="H248" s="34"/>
+      <c r="I248" s="34"/>
+      <c r="J248" s="34"/>
+      <c r="K248" s="34"/>
     </row>
     <row r="249" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="23" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C249" s="23"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="33"/>
-      <c r="K249" s="33"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="34"/>
+      <c r="F249" s="34"/>
+      <c r="G249" s="34"/>
+      <c r="H249" s="34"/>
+      <c r="I249" s="34"/>
+      <c r="J249" s="34"/>
+      <c r="K249" s="34"/>
     </row>
     <row r="250" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="23" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C250" s="23"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="33"/>
-      <c r="I250" s="33"/>
-      <c r="J250" s="33"/>
-      <c r="K250" s="33"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="34"/>
+      <c r="F250" s="34"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
+      <c r="I250" s="34"/>
+      <c r="J250" s="34"/>
+      <c r="K250" s="34"/>
     </row>
     <row r="251" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="23" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C251" s="23"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="33"/>
-      <c r="F251" s="33"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="33"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="33"/>
-      <c r="K251" s="33"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+      <c r="I251" s="34"/>
+      <c r="J251" s="34"/>
+      <c r="K251" s="34"/>
     </row>
     <row r="252" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C252" s="23"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="33"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="33"/>
-      <c r="I252" s="33"/>
-      <c r="J252" s="33"/>
-      <c r="K252" s="33"/>
+      <c r="D252" s="34"/>
+      <c r="E252" s="34"/>
+      <c r="F252" s="34"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
+      <c r="I252" s="34"/>
+      <c r="J252" s="34"/>
+      <c r="K252" s="34"/>
     </row>
     <row r="253" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="23" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C253" s="23"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
-      <c r="I253" s="33"/>
-      <c r="J253" s="33"/>
-      <c r="K253" s="33"/>
+      <c r="D253" s="34"/>
+      <c r="E253" s="34"/>
+      <c r="F253" s="34"/>
+      <c r="G253" s="34"/>
+      <c r="H253" s="34"/>
+      <c r="I253" s="34"/>
+      <c r="J253" s="34"/>
+      <c r="K253" s="34"/>
     </row>
     <row r="254" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="23" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C254" s="23"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="33"/>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33"/>
-      <c r="H254" s="33"/>
-      <c r="I254" s="33"/>
-      <c r="J254" s="33"/>
-      <c r="K254" s="33"/>
+      <c r="D254" s="34"/>
+      <c r="E254" s="34"/>
+      <c r="F254" s="34"/>
+      <c r="G254" s="34"/>
+      <c r="H254" s="34"/>
+      <c r="I254" s="34"/>
+      <c r="J254" s="34"/>
+      <c r="K254" s="34"/>
     </row>
     <row r="255" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C255" s="23"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="33"/>
-      <c r="K255" s="33"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="34"/>
+      <c r="G255" s="34"/>
+      <c r="H255" s="34"/>
+      <c r="I255" s="34"/>
+      <c r="J255" s="34"/>
+      <c r="K255" s="34"/>
     </row>
     <row r="256" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="23" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C256" s="23"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33"/>
-      <c r="H256" s="33"/>
-      <c r="I256" s="33"/>
-      <c r="J256" s="33"/>
-      <c r="K256" s="33"/>
+      <c r="D256" s="34"/>
+      <c r="E256" s="34"/>
+      <c r="F256" s="34"/>
+      <c r="G256" s="34"/>
+      <c r="H256" s="34"/>
+      <c r="I256" s="34"/>
+      <c r="J256" s="34"/>
+      <c r="K256" s="34"/>
     </row>
     <row r="257" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="23" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C257" s="23"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="33"/>
-      <c r="F257" s="33"/>
-      <c r="G257" s="33"/>
-      <c r="H257" s="33"/>
-      <c r="I257" s="33"/>
-      <c r="J257" s="33"/>
-      <c r="K257" s="33"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="34"/>
+      <c r="F257" s="34"/>
+      <c r="G257" s="34"/>
+      <c r="H257" s="34"/>
+      <c r="I257" s="34"/>
+      <c r="J257" s="34"/>
+      <c r="K257" s="34"/>
     </row>
     <row r="258" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C258" s="23"/>
-      <c r="D258" s="33"/>
-      <c r="E258" s="33"/>
-      <c r="F258" s="33"/>
-      <c r="G258" s="33"/>
-      <c r="H258" s="33"/>
-      <c r="I258" s="33"/>
-      <c r="J258" s="33"/>
-      <c r="K258" s="33"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="34"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="34"/>
+      <c r="H258" s="34"/>
+      <c r="I258" s="34"/>
+      <c r="J258" s="34"/>
+      <c r="K258" s="34"/>
     </row>
     <row r="259" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="23" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C259" s="23"/>
-      <c r="D259" s="33"/>
-      <c r="E259" s="33"/>
-      <c r="F259" s="33"/>
-      <c r="G259" s="33"/>
-      <c r="H259" s="33"/>
-      <c r="I259" s="33"/>
-      <c r="J259" s="33"/>
-      <c r="K259" s="33"/>
+      <c r="D259" s="34"/>
+      <c r="E259" s="34"/>
+      <c r="F259" s="34"/>
+      <c r="G259" s="34"/>
+      <c r="H259" s="34"/>
+      <c r="I259" s="34"/>
+      <c r="J259" s="34"/>
+      <c r="K259" s="34"/>
     </row>
     <row r="260" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C260" s="23"/>
-      <c r="D260" s="33"/>
-      <c r="E260" s="33"/>
-      <c r="F260" s="33"/>
-      <c r="G260" s="33"/>
-      <c r="H260" s="33"/>
-      <c r="I260" s="33"/>
-      <c r="J260" s="33"/>
-      <c r="K260" s="33"/>
+      <c r="D260" s="34"/>
+      <c r="E260" s="34"/>
+      <c r="F260" s="34"/>
+      <c r="G260" s="34"/>
+      <c r="H260" s="34"/>
+      <c r="I260" s="34"/>
+      <c r="J260" s="34"/>
+      <c r="K260" s="34"/>
     </row>
     <row r="261" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C261" s="23"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="33"/>
-      <c r="F261" s="33"/>
-      <c r="G261" s="33"/>
-      <c r="H261" s="33"/>
-      <c r="I261" s="33"/>
-      <c r="J261" s="33"/>
-      <c r="K261" s="33"/>
+      <c r="D261" s="34"/>
+      <c r="E261" s="34"/>
+      <c r="F261" s="34"/>
+      <c r="G261" s="34"/>
+      <c r="H261" s="34"/>
+      <c r="I261" s="34"/>
+      <c r="J261" s="34"/>
+      <c r="K261" s="34"/>
     </row>
     <row r="262" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C262" s="23"/>
-      <c r="D262" s="33"/>
-      <c r="E262" s="33"/>
-      <c r="F262" s="33"/>
-      <c r="G262" s="33"/>
-      <c r="H262" s="33"/>
-      <c r="I262" s="33"/>
-      <c r="J262" s="33"/>
-      <c r="K262" s="33"/>
+      <c r="D262" s="34"/>
+      <c r="E262" s="34"/>
+      <c r="F262" s="34"/>
+      <c r="G262" s="34"/>
+      <c r="H262" s="34"/>
+      <c r="I262" s="34"/>
+      <c r="J262" s="34"/>
+      <c r="K262" s="34"/>
     </row>
     <row r="263" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="23" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C263" s="23"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-      <c r="F263" s="33"/>
-      <c r="G263" s="33"/>
-      <c r="H263" s="33"/>
-      <c r="I263" s="33"/>
-      <c r="J263" s="33"/>
-      <c r="K263" s="33"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
+      <c r="F263" s="34"/>
+      <c r="G263" s="34"/>
+      <c r="H263" s="34"/>
+      <c r="I263" s="34"/>
+      <c r="J263" s="34"/>
+      <c r="K263" s="34"/>
     </row>
     <row r="264" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C264" s="23"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="33"/>
-      <c r="G264" s="33"/>
-      <c r="H264" s="33"/>
-      <c r="I264" s="33"/>
-      <c r="J264" s="33"/>
-      <c r="K264" s="33"/>
-    </row>
-    <row r="265" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D264" s="34"/>
+      <c r="E264" s="34"/>
+      <c r="F264" s="34"/>
+      <c r="G264" s="34"/>
+      <c r="H264" s="34"/>
+      <c r="I264" s="34"/>
+      <c r="J264" s="34"/>
+      <c r="K264" s="34"/>
+    </row>
+    <row r="265" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="23" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
-      <c r="H265" s="8"/>
-      <c r="I265" s="8"/>
-      <c r="J265" s="8"/>
-      <c r="K265" s="8"/>
+        <v>340</v>
+      </c>
+      <c r="C265" s="23"/>
+      <c r="D265" s="34"/>
+      <c r="E265" s="34"/>
+      <c r="F265" s="34"/>
+      <c r="G265" s="34"/>
+      <c r="H265" s="34"/>
+      <c r="I265" s="34"/>
+      <c r="J265" s="34"/>
+      <c r="K265" s="34"/>
     </row>
     <row r="266" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="23" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C266" s="23"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-      <c r="F266" s="33"/>
-      <c r="G266" s="33"/>
-      <c r="H266" s="33"/>
-      <c r="I266" s="33"/>
-      <c r="J266" s="33"/>
-      <c r="K266" s="33"/>
-    </row>
-    <row r="267" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D266" s="34"/>
+      <c r="E266" s="34"/>
+      <c r="F266" s="34"/>
+      <c r="G266" s="34"/>
+      <c r="H266" s="34"/>
+      <c r="I266" s="34"/>
+      <c r="J266" s="34"/>
+      <c r="K266" s="34"/>
+    </row>
+    <row r="267" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="23" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C267" s="23"/>
-      <c r="D267" s="33"/>
-      <c r="E267" s="33"/>
-      <c r="F267" s="33"/>
-      <c r="G267" s="33"/>
-      <c r="H267" s="33"/>
-      <c r="I267" s="33"/>
-      <c r="J267" s="33"/>
-      <c r="K267" s="33"/>
+        <v>340</v>
+      </c>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="8"/>
+      <c r="I267" s="8"/>
+      <c r="J267" s="8"/>
+      <c r="K267" s="8"/>
     </row>
     <row r="268" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="35" t="s">
-        <v>419</v>
+      <c r="A268" s="23" t="s">
+        <v>421</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="C268" s="23"/>
-      <c r="D268" s="33"/>
-      <c r="E268" s="33"/>
-      <c r="F268" s="33"/>
-      <c r="G268" s="33"/>
-      <c r="H268" s="33"/>
-      <c r="I268" s="33"/>
-      <c r="J268" s="33"/>
-      <c r="K268" s="33"/>
+      <c r="D268" s="34"/>
+      <c r="E268" s="34"/>
+      <c r="F268" s="34"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="34"/>
+      <c r="I268" s="34"/>
+      <c r="J268" s="34"/>
+      <c r="K268" s="34"/>
     </row>
     <row r="269" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6" t="s">
-        <v>421</v>
+      <c r="A269" s="23" t="s">
+        <v>422</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C269" s="23"/>
-      <c r="D269" s="33"/>
-      <c r="E269" s="33"/>
-      <c r="F269" s="33"/>
-      <c r="G269" s="33"/>
-      <c r="H269" s="33"/>
-      <c r="I269" s="33"/>
-      <c r="J269" s="33"/>
-      <c r="K269" s="33"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="23" t="s">
-        <v>422</v>
+      <c r="D269" s="34"/>
+      <c r="E269" s="34"/>
+      <c r="F269" s="34"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="34"/>
+      <c r="I269" s="34"/>
+      <c r="J269" s="34"/>
+      <c r="K269" s="34"/>
+    </row>
+    <row r="270" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="36" t="s">
+        <v>423</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-      <c r="H270" s="8"/>
-      <c r="I270" s="8"/>
-      <c r="J270" s="8"/>
-      <c r="K270" s="8"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="C270" s="23"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
+      <c r="F270" s="34"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="34"/>
+      <c r="I270" s="34"/>
+      <c r="J270" s="34"/>
+      <c r="K270" s="34"/>
+    </row>
+    <row r="271" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-      <c r="H271" s="8"/>
-      <c r="I271" s="8"/>
-      <c r="J271" s="8"/>
-      <c r="K271" s="8"/>
+        <v>340</v>
+      </c>
+      <c r="C271" s="23"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="34"/>
+      <c r="F271" s="34"/>
+      <c r="G271" s="34"/>
+      <c r="H271" s="34"/>
+      <c r="I271" s="34"/>
+      <c r="J271" s="34"/>
+      <c r="K271" s="34"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
@@ -7055,12 +7076,12 @@
       <c r="J272" s="8"/>
       <c r="K272" s="8"/>
     </row>
-    <row r="273" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="35" t="s">
-        <v>425</v>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="23" t="s">
+        <v>427</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
@@ -7071,12 +7092,12 @@
       <c r="J273" s="8"/>
       <c r="K273" s="8"/>
     </row>
-    <row r="274" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="23" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
@@ -7087,12 +7108,12 @@
       <c r="J274" s="8"/>
       <c r="K274" s="8"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="23" t="s">
-        <v>427</v>
+    <row r="275" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="36" t="s">
+        <v>429</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
@@ -7103,12 +7124,12 @@
       <c r="J275" s="8"/>
       <c r="K275" s="8"/>
     </row>
-    <row r="276" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="23" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
@@ -7121,10 +7142,10 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="23" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
@@ -7135,12 +7156,12 @@
       <c r="J277" s="8"/>
       <c r="K277" s="8"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>157</v>
+    <row r="278" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B278" s="23" t="s">
+        <v>340</v>
       </c>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
@@ -7152,11 +7173,11 @@
       <c r="K278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>432</v>
+      <c r="A279" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B279" s="23" t="s">
+        <v>340</v>
       </c>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
@@ -7168,11 +7189,11 @@
       <c r="K279" s="8"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="B280" s="23" t="s">
-        <v>336</v>
+      <c r="A280" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
@@ -7184,11 +7205,11 @@
       <c r="K280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B281" s="23" t="s">
-        <v>336</v>
+      <c r="A281" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
@@ -7200,11 +7221,11 @@
       <c r="K281" s="8"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>436</v>
+      <c r="A282" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B282" s="23" t="s">
+        <v>340</v>
       </c>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
@@ -7215,56 +7236,68 @@
       <c r="J282" s="8"/>
       <c r="K282" s="8"/>
     </row>
-    <row r="283" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="B283" s="25"/>
-      <c r="C283" s="25"/>
-      <c r="D283" s="11"/>
-      <c r="E283" s="11"/>
-      <c r="F283" s="11"/>
-      <c r="G283" s="11"/>
-      <c r="H283" s="11"/>
-      <c r="I283" s="11"/>
-      <c r="J283" s="11"/>
-      <c r="K283" s="11"/>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="8"/>
+      <c r="I283" s="8"/>
+      <c r="J283" s="8"/>
+      <c r="K283" s="8"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D284" s="13"/>
-      <c r="E284" s="13"/>
-      <c r="F284" s="13"/>
-      <c r="G284" s="13"/>
-      <c r="H284" s="13"/>
-      <c r="I284" s="13"/>
-      <c r="J284" s="13"/>
-      <c r="K284" s="13"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
-      <c r="H285" s="8"/>
-      <c r="I285" s="8"/>
-      <c r="J285" s="8"/>
-      <c r="K285" s="8"/>
+        <v>440</v>
+      </c>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="8"/>
+      <c r="J284" s="8"/>
+      <c r="K284" s="8"/>
+    </row>
+    <row r="285" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="B285" s="25"/>
+      <c r="C285" s="25"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
-      <c r="H286" s="8"/>
-      <c r="I286" s="8"/>
-      <c r="J286" s="8"/>
-      <c r="K286" s="8"/>
+      <c r="A286" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="13"/>
+      <c r="H286" s="13"/>
+      <c r="I286" s="13"/>
+      <c r="J286" s="13"/>
+      <c r="K286" s="13"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D287" s="8"/>
@@ -7656,45 +7689,55 @@
       <c r="J325" s="8"/>
       <c r="K325" s="8"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D331" s="8"/>
-      <c r="E331" s="8"/>
-      <c r="F331" s="8"/>
-      <c r="G331" s="8"/>
-      <c r="H331" s="8"/>
-      <c r="I331" s="8"/>
-      <c r="J331" s="8"/>
-      <c r="K331" s="8"/>
-    </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D332" s="8"/>
-      <c r="E332" s="8"/>
-      <c r="F332" s="8"/>
-      <c r="G332" s="8"/>
-      <c r="H332" s="8"/>
-      <c r="I332" s="8"/>
-      <c r="J332" s="8"/>
-      <c r="K332" s="8"/>
-    </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D355" s="8"/>
-      <c r="E355" s="8"/>
-      <c r="F355" s="8"/>
-      <c r="G355" s="8"/>
-      <c r="H355" s="8"/>
-      <c r="I355" s="8"/>
-      <c r="J355" s="8"/>
-      <c r="K355" s="8"/>
-    </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D356" s="8"/>
-      <c r="E356" s="8"/>
-      <c r="F356" s="8"/>
-      <c r="G356" s="8"/>
-      <c r="H356" s="8"/>
-      <c r="I356" s="8"/>
-      <c r="J356" s="8"/>
-      <c r="K356" s="8"/>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D326" s="8"/>
+      <c r="E326" s="8"/>
+      <c r="F326" s="8"/>
+      <c r="G326" s="8"/>
+      <c r="H326" s="8"/>
+      <c r="I326" s="8"/>
+      <c r="J326" s="8"/>
+      <c r="K326" s="8"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D327" s="8"/>
+      <c r="E327" s="8"/>
+      <c r="F327" s="8"/>
+      <c r="G327" s="8"/>
+      <c r="H327" s="8"/>
+      <c r="I327" s="8"/>
+      <c r="J327" s="8"/>
+      <c r="K327" s="8"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D333" s="8"/>
+      <c r="E333" s="8"/>
+      <c r="F333" s="8"/>
+      <c r="G333" s="8"/>
+      <c r="H333" s="8"/>
+      <c r="I333" s="8"/>
+      <c r="J333" s="8"/>
+      <c r="K333" s="8"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D334" s="8"/>
+      <c r="E334" s="8"/>
+      <c r="F334" s="8"/>
+      <c r="G334" s="8"/>
+      <c r="H334" s="8"/>
+      <c r="I334" s="8"/>
+      <c r="J334" s="8"/>
+      <c r="K334" s="8"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D357" s="8"/>
+      <c r="E357" s="8"/>
+      <c r="F357" s="8"/>
+      <c r="G357" s="8"/>
+      <c r="H357" s="8"/>
+      <c r="I357" s="8"/>
+      <c r="J357" s="8"/>
+      <c r="K357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D358" s="8"/>
@@ -7706,68 +7749,76 @@
       <c r="J358" s="8"/>
       <c r="K358" s="8"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D374" s="8"/>
-      <c r="E374" s="8"/>
-      <c r="F374" s="8"/>
-      <c r="G374" s="8"/>
-      <c r="H374" s="8"/>
-      <c r="I374" s="8"/>
-      <c r="J374" s="8"/>
-      <c r="K374" s="8"/>
-    </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D379" s="8"/>
-      <c r="E379" s="8"/>
-      <c r="F379" s="8"/>
-      <c r="G379" s="8"/>
-      <c r="H379" s="8"/>
-      <c r="I379" s="8"/>
-      <c r="J379" s="8"/>
-      <c r="K379" s="8"/>
-    </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D396" s="8"/>
-      <c r="E396" s="8"/>
-      <c r="F396" s="8"/>
-      <c r="G396" s="8"/>
-      <c r="H396" s="8"/>
-      <c r="I396" s="8"/>
-      <c r="J396" s="8"/>
-      <c r="K396" s="8"/>
-    </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D404" s="8"/>
-      <c r="E404" s="8"/>
-      <c r="F404" s="8"/>
-      <c r="G404" s="8"/>
-      <c r="H404" s="8"/>
-      <c r="I404" s="8"/>
-      <c r="J404" s="8"/>
-      <c r="K404" s="8"/>
-    </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D411" s="8"/>
-      <c r="E411" s="8"/>
-      <c r="F411" s="8"/>
-      <c r="G411" s="8"/>
-      <c r="H411" s="8"/>
-      <c r="I411" s="8"/>
-      <c r="J411" s="8"/>
-      <c r="K411" s="8"/>
-    </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D412" s="8"/>
-      <c r="E412" s="8"/>
-      <c r="F412" s="8"/>
-      <c r="G412" s="8"/>
-      <c r="H412" s="8"/>
-      <c r="I412" s="8"/>
-      <c r="J412" s="8"/>
-      <c r="K412" s="8"/>
-    </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D360" s="8"/>
+      <c r="E360" s="8"/>
+      <c r="F360" s="8"/>
+      <c r="G360" s="8"/>
+      <c r="H360" s="8"/>
+      <c r="I360" s="8"/>
+      <c r="J360" s="8"/>
+      <c r="K360" s="8"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D376" s="8"/>
+      <c r="E376" s="8"/>
+      <c r="F376" s="8"/>
+      <c r="G376" s="8"/>
+      <c r="H376" s="8"/>
+      <c r="I376" s="8"/>
+      <c r="J376" s="8"/>
+      <c r="K376" s="8"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D381" s="8"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="8"/>
+      <c r="G381" s="8"/>
+      <c r="H381" s="8"/>
+      <c r="I381" s="8"/>
+      <c r="J381" s="8"/>
+      <c r="K381" s="8"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D398" s="8"/>
+      <c r="E398" s="8"/>
+      <c r="F398" s="8"/>
+      <c r="G398" s="8"/>
+      <c r="H398" s="8"/>
+      <c r="I398" s="8"/>
+      <c r="J398" s="8"/>
+      <c r="K398" s="8"/>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D406" s="8"/>
+      <c r="E406" s="8"/>
+      <c r="F406" s="8"/>
+      <c r="G406" s="8"/>
+      <c r="H406" s="8"/>
+      <c r="I406" s="8"/>
+      <c r="J406" s="8"/>
+      <c r="K406" s="8"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D413" s="8"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="8"/>
+      <c r="G413" s="8"/>
+      <c r="H413" s="8"/>
+      <c r="I413" s="8"/>
+      <c r="J413" s="8"/>
+      <c r="K413" s="8"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D414" s="8"/>
+      <c r="E414" s="8"/>
+      <c r="F414" s="8"/>
+      <c r="G414" s="8"/>
+      <c r="H414" s="8"/>
+      <c r="I414" s="8"/>
+      <c r="J414" s="8"/>
+      <c r="K414" s="8"/>
+    </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7808,114 +7859,114 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-    </row>
-    <row r="4" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-    </row>
-    <row r="5" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+    <row r="2" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B3" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-    </row>
-    <row r="6" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>146</v>
@@ -7923,7 +7974,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>146</v>
@@ -7931,66 +7982,66 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="B12" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
+    </row>
+    <row r="11" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>242</v>
@@ -8005,7 +8056,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -8021,7 +8072,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>29</v>
@@ -8036,7 +8087,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>29</v>
@@ -8049,64 +8100,64 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+    <row r="18" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="C20" s="41" t="s">
+    <row r="20" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -8118,13 +8169,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -8136,13 +8187,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -8152,23 +8203,23 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="B24" s="42" t="s">
+    <row r="24" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>472</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="C24" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="8"/>
@@ -8222,13 +8273,13 @@
     </row>
     <row r="30" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -18268,26 +18319,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="76.62"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -18536,7 +18587,7 @@
     </row>
     <row r="15" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>146</v>
@@ -18594,7 +18645,7 @@
     </row>
     <row r="20" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>37</v>
@@ -18642,7 +18693,7 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>48</v>
@@ -18653,7 +18704,7 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>48</v>
@@ -18744,7 +18795,7 @@
     </row>
     <row r="34" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>64</v>
@@ -18762,7 +18813,7 @@
     </row>
     <row r="35" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>67</v>
@@ -18918,7 +18969,7 @@
     </row>
     <row r="46" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>81</v>
@@ -19235,10 +19286,10 @@
     </row>
     <row r="68" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="8"/>
@@ -19267,19 +19318,19 @@
     </row>
     <row r="70" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
     </row>
     <row r="71" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
@@ -19299,7 +19350,7 @@
     </row>
     <row r="72" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="22" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>48</v>
@@ -19310,7 +19361,7 @@
     </row>
     <row r="73" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="22" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>48</v>
@@ -19510,7 +19561,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>169</v>
@@ -19896,7 +19947,7 @@
         <v>221</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C112" s="29"/>
     </row>
@@ -20759,7 +20810,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="25" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -20772,10 +20823,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
@@ -20788,7 +20839,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
@@ -20800,11 +20851,11 @@
       <c r="K168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="B169" s="32" t="s">
-        <v>329</v>
+      <c r="A169" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
@@ -20816,11 +20867,11 @@
       <c r="K169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="B170" s="32" t="s">
-        <v>331</v>
+      <c r="A170" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="33" t="s">
+        <v>335</v>
       </c>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
@@ -20833,1300 +20884,1300 @@
     </row>
     <row r="171" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="23" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C171" s="23"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="33"/>
-      <c r="K171" s="33"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="34"/>
+      <c r="I171" s="34"/>
+      <c r="J171" s="34"/>
+      <c r="K171" s="34"/>
     </row>
     <row r="172" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="34" t="s">
-        <v>334</v>
+      <c r="A172" s="35" t="s">
+        <v>338</v>
       </c>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="33"/>
-      <c r="K172" s="33"/>
+      <c r="D172" s="34"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="34"/>
+      <c r="G172" s="34"/>
+      <c r="H172" s="34"/>
+      <c r="I172" s="34"/>
+      <c r="J172" s="34"/>
+      <c r="K172" s="34"/>
     </row>
     <row r="173" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="23" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C173" s="23"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="33"/>
-      <c r="K173" s="33"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="34"/>
+      <c r="I173" s="34"/>
+      <c r="J173" s="34"/>
+      <c r="K173" s="34"/>
     </row>
     <row r="174" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="23" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C174" s="23"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="33"/>
-      <c r="K174" s="33"/>
+      <c r="D174" s="34"/>
+      <c r="E174" s="34"/>
+      <c r="F174" s="34"/>
+      <c r="G174" s="34"/>
+      <c r="H174" s="34"/>
+      <c r="I174" s="34"/>
+      <c r="J174" s="34"/>
+      <c r="K174" s="34"/>
     </row>
     <row r="175" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="23" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C175" s="23"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="33"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="33"/>
-      <c r="J175" s="33"/>
-      <c r="K175" s="33"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="34"/>
+      <c r="G175" s="34"/>
+      <c r="H175" s="34"/>
+      <c r="I175" s="34"/>
+      <c r="J175" s="34"/>
+      <c r="K175" s="34"/>
     </row>
     <row r="176" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="23" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C176" s="23"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="33"/>
-      <c r="H176" s="33"/>
-      <c r="I176" s="33"/>
-      <c r="J176" s="33"/>
-      <c r="K176" s="33"/>
+      <c r="D176" s="34"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="34"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="34"/>
+      <c r="I176" s="34"/>
+      <c r="J176" s="34"/>
+      <c r="K176" s="34"/>
     </row>
     <row r="177" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B177" s="23" t="s">
-        <v>336</v>
-      </c>
       <c r="C177" s="23"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="33"/>
-      <c r="K177" s="33"/>
+      <c r="D177" s="34"/>
+      <c r="E177" s="34"/>
+      <c r="F177" s="34"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="34"/>
+      <c r="I177" s="34"/>
+      <c r="J177" s="34"/>
+      <c r="K177" s="34"/>
     </row>
     <row r="178" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="23" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C178" s="23"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="33"/>
-      <c r="K178" s="33"/>
+      <c r="D178" s="34"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="34"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="34"/>
+      <c r="I178" s="34"/>
+      <c r="J178" s="34"/>
+      <c r="K178" s="34"/>
     </row>
     <row r="179" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="23" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C179" s="23"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="33"/>
-      <c r="J179" s="33"/>
-      <c r="K179" s="33"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="34"/>
+      <c r="J179" s="34"/>
+      <c r="K179" s="34"/>
     </row>
     <row r="180" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="23" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C180" s="23"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="33"/>
-      <c r="K180" s="33"/>
+      <c r="D180" s="34"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="34"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="34"/>
+      <c r="I180" s="34"/>
+      <c r="J180" s="34"/>
+      <c r="K180" s="34"/>
     </row>
     <row r="181" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="23" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C181" s="23"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="33"/>
-      <c r="J181" s="33"/>
-      <c r="K181" s="33"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="34"/>
+      <c r="I181" s="34"/>
+      <c r="J181" s="34"/>
+      <c r="K181" s="34"/>
     </row>
     <row r="182" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="23" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C182" s="23"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="33"/>
-      <c r="K182" s="33"/>
+      <c r="D182" s="34"/>
+      <c r="E182" s="34"/>
+      <c r="F182" s="34"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="34"/>
+      <c r="I182" s="34"/>
+      <c r="J182" s="34"/>
+      <c r="K182" s="34"/>
     </row>
     <row r="183" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="23" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C183" s="23"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33"/>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="33"/>
-      <c r="K183" s="33"/>
+      <c r="D183" s="34"/>
+      <c r="E183" s="34"/>
+      <c r="F183" s="34"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="34"/>
+      <c r="J183" s="34"/>
+      <c r="K183" s="34"/>
     </row>
     <row r="184" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="23" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C184" s="23"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="33"/>
-      <c r="K184" s="33"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
+      <c r="I184" s="34"/>
+      <c r="J184" s="34"/>
+      <c r="K184" s="34"/>
     </row>
     <row r="185" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="23" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C185" s="23"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33"/>
-      <c r="J185" s="33"/>
-      <c r="K185" s="33"/>
+      <c r="D185" s="34"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="34"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="34"/>
+      <c r="I185" s="34"/>
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
     </row>
     <row r="186" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="23" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C186" s="23"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="33"/>
-      <c r="K186" s="33"/>
+      <c r="D186" s="34"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="34"/>
+      <c r="G186" s="34"/>
+      <c r="H186" s="34"/>
+      <c r="I186" s="34"/>
+      <c r="J186" s="34"/>
+      <c r="K186" s="34"/>
     </row>
     <row r="187" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="23" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C187" s="23"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="33"/>
-      <c r="K187" s="33"/>
+      <c r="D187" s="34"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="34"/>
+      <c r="G187" s="34"/>
+      <c r="H187" s="34"/>
+      <c r="I187" s="34"/>
+      <c r="J187" s="34"/>
+      <c r="K187" s="34"/>
     </row>
     <row r="188" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="23" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C188" s="23"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="33"/>
-      <c r="K188" s="33"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="34"/>
+      <c r="F188" s="34"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="34"/>
+      <c r="I188" s="34"/>
+      <c r="J188" s="34"/>
+      <c r="K188" s="34"/>
     </row>
     <row r="189" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="23" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C189" s="23"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="33"/>
-      <c r="K189" s="33"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="34"/>
+      <c r="J189" s="34"/>
+      <c r="K189" s="34"/>
     </row>
     <row r="190" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="23" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C190" s="23"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="33"/>
-      <c r="K190" s="33"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="34"/>
+      <c r="G190" s="34"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
     </row>
     <row r="191" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="23" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C191" s="23"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="33"/>
-      <c r="K191" s="33"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="34"/>
+      <c r="G191" s="34"/>
+      <c r="H191" s="34"/>
+      <c r="I191" s="34"/>
+      <c r="J191" s="34"/>
+      <c r="K191" s="34"/>
     </row>
     <row r="192" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="23" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C192" s="23"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="33"/>
-      <c r="K192" s="33"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="34"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="34"/>
+      <c r="I192" s="34"/>
+      <c r="J192" s="34"/>
+      <c r="K192" s="34"/>
     </row>
     <row r="193" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="23" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C193" s="23"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="33"/>
-      <c r="K193" s="33"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="34"/>
+      <c r="I193" s="34"/>
+      <c r="J193" s="34"/>
+      <c r="K193" s="34"/>
     </row>
     <row r="194" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="23" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C194" s="23"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="33"/>
-      <c r="K194" s="33"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="34"/>
+      <c r="I194" s="34"/>
+      <c r="J194" s="34"/>
+      <c r="K194" s="34"/>
     </row>
     <row r="195" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="23" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C195" s="23"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="33"/>
-      <c r="K195" s="33"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="34"/>
+      <c r="G195" s="34"/>
+      <c r="H195" s="34"/>
+      <c r="I195" s="34"/>
+      <c r="J195" s="34"/>
+      <c r="K195" s="34"/>
     </row>
     <row r="196" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="23" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C196" s="23"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="33"/>
-      <c r="K196" s="33"/>
+      <c r="D196" s="34"/>
+      <c r="E196" s="34"/>
+      <c r="F196" s="34"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
+      <c r="I196" s="34"/>
+      <c r="J196" s="34"/>
+      <c r="K196" s="34"/>
     </row>
     <row r="197" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="23" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C197" s="23"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="33"/>
-      <c r="K197" s="33"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="34"/>
+      <c r="J197" s="34"/>
+      <c r="K197" s="34"/>
     </row>
     <row r="198" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="23" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C198" s="23"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="33"/>
-      <c r="K198" s="33"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="34"/>
+      <c r="I198" s="34"/>
+      <c r="J198" s="34"/>
+      <c r="K198" s="34"/>
     </row>
     <row r="199" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="23" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C199" s="23"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="33"/>
-      <c r="K199" s="33"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
+      <c r="I199" s="34"/>
+      <c r="J199" s="34"/>
+      <c r="K199" s="34"/>
     </row>
     <row r="200" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="23" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C200" s="23"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="33"/>
-      <c r="J200" s="33"/>
-      <c r="K200" s="33"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="34"/>
+      <c r="F200" s="34"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="34"/>
+      <c r="I200" s="34"/>
+      <c r="J200" s="34"/>
+      <c r="K200" s="34"/>
     </row>
     <row r="201" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="23" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C201" s="23"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="33"/>
-      <c r="K201" s="33"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="34"/>
+      <c r="J201" s="34"/>
+      <c r="K201" s="34"/>
     </row>
     <row r="202" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="23" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C202" s="23"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="33"/>
-      <c r="J202" s="33"/>
-      <c r="K202" s="33"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="34"/>
+      <c r="F202" s="34"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="34"/>
+      <c r="I202" s="34"/>
+      <c r="J202" s="34"/>
+      <c r="K202" s="34"/>
     </row>
     <row r="203" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="23" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C203" s="23"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="33"/>
-      <c r="K203" s="33"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="34"/>
+      <c r="I203" s="34"/>
+      <c r="J203" s="34"/>
+      <c r="K203" s="34"/>
     </row>
     <row r="204" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="23" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C204" s="23"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="33"/>
-      <c r="K204" s="33"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="34"/>
+      <c r="F204" s="34"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="34"/>
+      <c r="I204" s="34"/>
+      <c r="J204" s="34"/>
+      <c r="K204" s="34"/>
     </row>
     <row r="205" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="23" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C205" s="23"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="33"/>
-      <c r="J205" s="33"/>
-      <c r="K205" s="33"/>
+      <c r="D205" s="34"/>
+      <c r="E205" s="34"/>
+      <c r="F205" s="34"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="34"/>
+      <c r="I205" s="34"/>
+      <c r="J205" s="34"/>
+      <c r="K205" s="34"/>
     </row>
     <row r="206" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="23" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C206" s="23"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="33"/>
-      <c r="K206" s="33"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="34"/>
+      <c r="K206" s="34"/>
     </row>
     <row r="207" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="23" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C207" s="23"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="33"/>
-      <c r="K207" s="33"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
+      <c r="I207" s="34"/>
+      <c r="J207" s="34"/>
+      <c r="K207" s="34"/>
     </row>
     <row r="208" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="23" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C208" s="23"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="33"/>
-      <c r="K208" s="33"/>
+      <c r="D208" s="34"/>
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="34"/>
+      <c r="I208" s="34"/>
+      <c r="J208" s="34"/>
+      <c r="K208" s="34"/>
     </row>
     <row r="209" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="23" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C209" s="23"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="33"/>
-      <c r="K209" s="33"/>
+      <c r="D209" s="34"/>
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="34"/>
+      <c r="I209" s="34"/>
+      <c r="J209" s="34"/>
+      <c r="K209" s="34"/>
     </row>
     <row r="210" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="23" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C210" s="23"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="33"/>
-      <c r="J210" s="33"/>
-      <c r="K210" s="33"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="34"/>
+      <c r="I210" s="34"/>
+      <c r="J210" s="34"/>
+      <c r="K210" s="34"/>
     </row>
     <row r="211" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="23" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C211" s="23"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
-      <c r="J211" s="33"/>
-      <c r="K211" s="33"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="34"/>
+      <c r="K211" s="34"/>
     </row>
     <row r="212" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C212" s="23"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
-      <c r="J212" s="33"/>
-      <c r="K212" s="33"/>
+      <c r="D212" s="34"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="34"/>
+      <c r="I212" s="34"/>
+      <c r="J212" s="34"/>
+      <c r="K212" s="34"/>
     </row>
     <row r="213" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C213" s="23"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="33"/>
-      <c r="K213" s="33"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="34"/>
+      <c r="I213" s="34"/>
+      <c r="J213" s="34"/>
+      <c r="K213" s="34"/>
     </row>
     <row r="214" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="23" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C214" s="23"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="33"/>
-      <c r="J214" s="33"/>
-      <c r="K214" s="33"/>
+      <c r="D214" s="34"/>
+      <c r="E214" s="34"/>
+      <c r="F214" s="34"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="34"/>
+      <c r="I214" s="34"/>
+      <c r="J214" s="34"/>
+      <c r="K214" s="34"/>
     </row>
     <row r="215" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="23" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C215" s="23"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="33"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="34"/>
+      <c r="F215" s="34"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="34"/>
+      <c r="I215" s="34"/>
+      <c r="J215" s="34"/>
+      <c r="K215" s="34"/>
     </row>
     <row r="216" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="23" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C216" s="23"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="33"/>
-      <c r="K216" s="33"/>
+      <c r="D216" s="34"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
+      <c r="I216" s="34"/>
+      <c r="J216" s="34"/>
+      <c r="K216" s="34"/>
     </row>
     <row r="217" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="23" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C217" s="23"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="33"/>
-      <c r="K217" s="33"/>
+      <c r="D217" s="34"/>
+      <c r="E217" s="34"/>
+      <c r="F217" s="34"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="34"/>
+      <c r="I217" s="34"/>
+      <c r="J217" s="34"/>
+      <c r="K217" s="34"/>
     </row>
     <row r="218" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="23" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C218" s="23"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="33"/>
-      <c r="K218" s="33"/>
+      <c r="D218" s="34"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="34"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="34"/>
+      <c r="I218" s="34"/>
+      <c r="J218" s="34"/>
+      <c r="K218" s="34"/>
     </row>
     <row r="219" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="23" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C219" s="23"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="33"/>
-      <c r="J219" s="33"/>
-      <c r="K219" s="33"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="34"/>
+      <c r="I219" s="34"/>
+      <c r="J219" s="34"/>
+      <c r="K219" s="34"/>
     </row>
     <row r="220" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="23" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C220" s="23"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="33"/>
-      <c r="J220" s="33"/>
-      <c r="K220" s="33"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="34"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="34"/>
+      <c r="I220" s="34"/>
+      <c r="J220" s="34"/>
+      <c r="K220" s="34"/>
     </row>
     <row r="221" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="23" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C221" s="23"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="33"/>
-      <c r="J221" s="33"/>
-      <c r="K221" s="33"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="34"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="34"/>
+      <c r="I221" s="34"/>
+      <c r="J221" s="34"/>
+      <c r="K221" s="34"/>
     </row>
     <row r="222" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="23" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C222" s="23"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="33"/>
-      <c r="J222" s="33"/>
-      <c r="K222" s="33"/>
+      <c r="D222" s="34"/>
+      <c r="E222" s="34"/>
+      <c r="F222" s="34"/>
+      <c r="G222" s="34"/>
+      <c r="H222" s="34"/>
+      <c r="I222" s="34"/>
+      <c r="J222" s="34"/>
+      <c r="K222" s="34"/>
     </row>
     <row r="223" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C223" s="23"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="33"/>
-      <c r="J223" s="33"/>
-      <c r="K223" s="33"/>
+      <c r="D223" s="34"/>
+      <c r="E223" s="34"/>
+      <c r="F223" s="34"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="34"/>
+      <c r="I223" s="34"/>
+      <c r="J223" s="34"/>
+      <c r="K223" s="34"/>
     </row>
     <row r="224" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="23" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C224" s="23"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="33"/>
-      <c r="K224" s="33"/>
+      <c r="D224" s="34"/>
+      <c r="E224" s="34"/>
+      <c r="F224" s="34"/>
+      <c r="G224" s="34"/>
+      <c r="H224" s="34"/>
+      <c r="I224" s="34"/>
+      <c r="J224" s="34"/>
+      <c r="K224" s="34"/>
     </row>
     <row r="225" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="23" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C225" s="23"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="33"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="33"/>
-      <c r="J225" s="33"/>
-      <c r="K225" s="33"/>
+      <c r="D225" s="34"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="34"/>
+      <c r="G225" s="34"/>
+      <c r="H225" s="34"/>
+      <c r="I225" s="34"/>
+      <c r="J225" s="34"/>
+      <c r="K225" s="34"/>
     </row>
     <row r="226" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="23" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C226" s="23"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="33"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="33"/>
-      <c r="K226" s="33"/>
+      <c r="D226" s="34"/>
+      <c r="E226" s="34"/>
+      <c r="F226" s="34"/>
+      <c r="G226" s="34"/>
+      <c r="H226" s="34"/>
+      <c r="I226" s="34"/>
+      <c r="J226" s="34"/>
+      <c r="K226" s="34"/>
     </row>
     <row r="227" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="23" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C227" s="23"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="33"/>
-      <c r="K227" s="33"/>
+      <c r="D227" s="34"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="34"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="34"/>
+      <c r="I227" s="34"/>
+      <c r="J227" s="34"/>
+      <c r="K227" s="34"/>
     </row>
     <row r="228" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="23" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C228" s="23"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-      <c r="I228" s="33"/>
-      <c r="J228" s="33"/>
-      <c r="K228" s="33"/>
+      <c r="D228" s="34"/>
+      <c r="E228" s="34"/>
+      <c r="F228" s="34"/>
+      <c r="G228" s="34"/>
+      <c r="H228" s="34"/>
+      <c r="I228" s="34"/>
+      <c r="J228" s="34"/>
+      <c r="K228" s="34"/>
     </row>
     <row r="229" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="23" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C229" s="23"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="33"/>
+      <c r="D229" s="34"/>
+      <c r="E229" s="34"/>
+      <c r="F229" s="34"/>
+      <c r="G229" s="34"/>
+      <c r="H229" s="34"/>
+      <c r="I229" s="34"/>
+      <c r="J229" s="34"/>
+      <c r="K229" s="34"/>
     </row>
     <row r="230" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="23" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C230" s="23"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="33"/>
-      <c r="J230" s="33"/>
-      <c r="K230" s="33"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="34"/>
+      <c r="F230" s="34"/>
+      <c r="G230" s="34"/>
+      <c r="H230" s="34"/>
+      <c r="I230" s="34"/>
+      <c r="J230" s="34"/>
+      <c r="K230" s="34"/>
     </row>
     <row r="231" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="23" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C231" s="23"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
-      <c r="I231" s="33"/>
-      <c r="J231" s="33"/>
-      <c r="K231" s="33"/>
+      <c r="D231" s="34"/>
+      <c r="E231" s="34"/>
+      <c r="F231" s="34"/>
+      <c r="G231" s="34"/>
+      <c r="H231" s="34"/>
+      <c r="I231" s="34"/>
+      <c r="J231" s="34"/>
+      <c r="K231" s="34"/>
     </row>
     <row r="232" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="23" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C232" s="23"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="33"/>
-      <c r="I232" s="33"/>
-      <c r="J232" s="33"/>
-      <c r="K232" s="33"/>
+      <c r="D232" s="34"/>
+      <c r="E232" s="34"/>
+      <c r="F232" s="34"/>
+      <c r="G232" s="34"/>
+      <c r="H232" s="34"/>
+      <c r="I232" s="34"/>
+      <c r="J232" s="34"/>
+      <c r="K232" s="34"/>
     </row>
     <row r="233" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="23" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C233" s="23"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33"/>
-      <c r="G233" s="33"/>
-      <c r="H233" s="33"/>
-      <c r="I233" s="33"/>
-      <c r="J233" s="33"/>
-      <c r="K233" s="33"/>
+      <c r="D233" s="34"/>
+      <c r="E233" s="34"/>
+      <c r="F233" s="34"/>
+      <c r="G233" s="34"/>
+      <c r="H233" s="34"/>
+      <c r="I233" s="34"/>
+      <c r="J233" s="34"/>
+      <c r="K233" s="34"/>
     </row>
     <row r="234" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="23" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C234" s="23"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="33"/>
-      <c r="I234" s="33"/>
-      <c r="J234" s="33"/>
-      <c r="K234" s="33"/>
+      <c r="D234" s="34"/>
+      <c r="E234" s="34"/>
+      <c r="F234" s="34"/>
+      <c r="G234" s="34"/>
+      <c r="H234" s="34"/>
+      <c r="I234" s="34"/>
+      <c r="J234" s="34"/>
+      <c r="K234" s="34"/>
     </row>
     <row r="235" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="23" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C235" s="23"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="33"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="33"/>
-      <c r="I235" s="33"/>
-      <c r="J235" s="33"/>
-      <c r="K235" s="33"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="34"/>
+      <c r="G235" s="34"/>
+      <c r="H235" s="34"/>
+      <c r="I235" s="34"/>
+      <c r="J235" s="34"/>
+      <c r="K235" s="34"/>
     </row>
     <row r="236" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="23" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C236" s="23"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="33"/>
-      <c r="I236" s="33"/>
-      <c r="J236" s="33"/>
-      <c r="K236" s="33"/>
+      <c r="D236" s="34"/>
+      <c r="E236" s="34"/>
+      <c r="F236" s="34"/>
+      <c r="G236" s="34"/>
+      <c r="H236" s="34"/>
+      <c r="I236" s="34"/>
+      <c r="J236" s="34"/>
+      <c r="K236" s="34"/>
     </row>
     <row r="237" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="23" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C237" s="23"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="33"/>
-      <c r="G237" s="33"/>
-      <c r="H237" s="33"/>
-      <c r="I237" s="33"/>
-      <c r="J237" s="33"/>
-      <c r="K237" s="33"/>
+      <c r="D237" s="34"/>
+      <c r="E237" s="34"/>
+      <c r="F237" s="34"/>
+      <c r="G237" s="34"/>
+      <c r="H237" s="34"/>
+      <c r="I237" s="34"/>
+      <c r="J237" s="34"/>
+      <c r="K237" s="34"/>
     </row>
     <row r="238" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="23" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C238" s="23"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="33"/>
-      <c r="G238" s="33"/>
-      <c r="H238" s="33"/>
-      <c r="I238" s="33"/>
-      <c r="J238" s="33"/>
-      <c r="K238" s="33"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="34"/>
+      <c r="F238" s="34"/>
+      <c r="G238" s="34"/>
+      <c r="H238" s="34"/>
+      <c r="I238" s="34"/>
+      <c r="J238" s="34"/>
+      <c r="K238" s="34"/>
     </row>
     <row r="239" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="23" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C239" s="23"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
-      <c r="F239" s="33"/>
-      <c r="G239" s="33"/>
-      <c r="H239" s="33"/>
-      <c r="I239" s="33"/>
-      <c r="J239" s="33"/>
-      <c r="K239" s="33"/>
+      <c r="D239" s="34"/>
+      <c r="E239" s="34"/>
+      <c r="F239" s="34"/>
+      <c r="G239" s="34"/>
+      <c r="H239" s="34"/>
+      <c r="I239" s="34"/>
+      <c r="J239" s="34"/>
+      <c r="K239" s="34"/>
     </row>
     <row r="240" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="23" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C240" s="23"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="33"/>
-      <c r="I240" s="33"/>
-      <c r="J240" s="33"/>
-      <c r="K240" s="33"/>
+      <c r="D240" s="34"/>
+      <c r="E240" s="34"/>
+      <c r="F240" s="34"/>
+      <c r="G240" s="34"/>
+      <c r="H240" s="34"/>
+      <c r="I240" s="34"/>
+      <c r="J240" s="34"/>
+      <c r="K240" s="34"/>
     </row>
     <row r="241" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="23" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C241" s="23"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33"/>
-      <c r="G241" s="33"/>
-      <c r="H241" s="33"/>
-      <c r="I241" s="33"/>
-      <c r="J241" s="33"/>
-      <c r="K241" s="33"/>
+      <c r="D241" s="34"/>
+      <c r="E241" s="34"/>
+      <c r="F241" s="34"/>
+      <c r="G241" s="34"/>
+      <c r="H241" s="34"/>
+      <c r="I241" s="34"/>
+      <c r="J241" s="34"/>
+      <c r="K241" s="34"/>
     </row>
     <row r="242" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="23" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C242" s="23"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33"/>
-      <c r="H242" s="33"/>
-      <c r="I242" s="33"/>
-      <c r="J242" s="33"/>
-      <c r="K242" s="33"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="34"/>
+      <c r="G242" s="34"/>
+      <c r="H242" s="34"/>
+      <c r="I242" s="34"/>
+      <c r="J242" s="34"/>
+      <c r="K242" s="34"/>
     </row>
     <row r="243" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="23" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C243" s="23"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="33"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="33"/>
-      <c r="K243" s="33"/>
+      <c r="D243" s="34"/>
+      <c r="E243" s="34"/>
+      <c r="F243" s="34"/>
+      <c r="G243" s="34"/>
+      <c r="H243" s="34"/>
+      <c r="I243" s="34"/>
+      <c r="J243" s="34"/>
+      <c r="K243" s="34"/>
     </row>
     <row r="244" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="23" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C244" s="23"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
-      <c r="I244" s="33"/>
-      <c r="J244" s="33"/>
-      <c r="K244" s="33"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="34"/>
+      <c r="F244" s="34"/>
+      <c r="G244" s="34"/>
+      <c r="H244" s="34"/>
+      <c r="I244" s="34"/>
+      <c r="J244" s="34"/>
+      <c r="K244" s="34"/>
     </row>
     <row r="245" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="23" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C245" s="23"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="33"/>
-      <c r="K245" s="33"/>
+      <c r="D245" s="34"/>
+      <c r="E245" s="34"/>
+      <c r="F245" s="34"/>
+      <c r="G245" s="34"/>
+      <c r="H245" s="34"/>
+      <c r="I245" s="34"/>
+      <c r="J245" s="34"/>
+      <c r="K245" s="34"/>
     </row>
     <row r="246" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="23" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C246" s="23"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="33"/>
-      <c r="K246" s="33"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="34"/>
+      <c r="F246" s="34"/>
+      <c r="G246" s="34"/>
+      <c r="H246" s="34"/>
+      <c r="I246" s="34"/>
+      <c r="J246" s="34"/>
+      <c r="K246" s="34"/>
     </row>
     <row r="247" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="23" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
@@ -22138,68 +22189,68 @@
       <c r="K247" s="8"/>
     </row>
     <row r="248" s="6" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="44" t="s">
-        <v>492</v>
+      <c r="A248" s="45" t="s">
+        <v>496</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C248" s="23"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="33"/>
-      <c r="I248" s="33"/>
-      <c r="J248" s="33"/>
-      <c r="K248" s="33"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="34"/>
+      <c r="F248" s="34"/>
+      <c r="G248" s="34"/>
+      <c r="H248" s="34"/>
+      <c r="I248" s="34"/>
+      <c r="J248" s="34"/>
+      <c r="K248" s="34"/>
     </row>
     <row r="249" s="6" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="45" t="s">
-        <v>493</v>
+      <c r="A249" s="46" t="s">
+        <v>497</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C249" s="23"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="33"/>
-      <c r="K249" s="33"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="34"/>
+      <c r="F249" s="34"/>
+      <c r="G249" s="34"/>
+      <c r="H249" s="34"/>
+      <c r="I249" s="34"/>
+      <c r="J249" s="34"/>
+      <c r="K249" s="34"/>
     </row>
     <row r="250" s="6" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="45" t="s">
-        <v>494</v>
+      <c r="A250" s="46" t="s">
+        <v>498</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C250" s="23"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="33"/>
-      <c r="I250" s="33"/>
-      <c r="J250" s="33"/>
-      <c r="K250" s="33"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="34"/>
+      <c r="F250" s="34"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
+      <c r="I250" s="34"/>
+      <c r="J250" s="34"/>
+      <c r="K250" s="34"/>
     </row>
     <row r="251" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="23"/>
       <c r="B251" s="23"/>
       <c r="C251" s="23"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="33"/>
-      <c r="F251" s="33"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="33"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="33"/>
-      <c r="K251" s="33"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+      <c r="I251" s="34"/>
+      <c r="J251" s="34"/>
+      <c r="K251" s="34"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D252" s="8"/>
